--- a/LOCATION SHEETS/1860sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1860sLOCATIONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/LOCATION SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D12F16-5F4E-F147-BAA5-439E38A0A190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5246BA0-1577-DA44-9541-6A690709A080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="460" windowWidth="24260" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8317" uniqueCount="3130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8319" uniqueCount="3132">
   <si>
     <t>LOCATIONS IN 1860s</t>
   </si>
@@ -9685,6 +9685,12 @@
   </si>
   <si>
     <t>RR196</t>
+  </si>
+  <si>
+    <t>WAKEFIELD PRISON</t>
+  </si>
+  <si>
+    <t>RR134</t>
   </si>
 </sst>
 </file>
@@ -10247,8 +10253,8 @@
   <dimension ref="A1:K2515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1955" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1978" sqref="D1978"/>
+      <pane ySplit="6" topLeftCell="A1349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1377" sqref="A1377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -35949,9 +35955,11 @@
       <c r="B1386" s="18">
         <v>69</v>
       </c>
-      <c r="C1386" s="19"/>
-      <c r="D1386" s="17" t="s">
-        <v>1229</v>
+      <c r="C1386" s="33" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1386" s="10" t="s">
+        <v>3130</v>
       </c>
       <c r="E1386" s="30"/>
       <c r="F1386" s="30"/>
@@ -41023,7 +41031,9 @@
       <c r="B1658" s="18">
         <v>60</v>
       </c>
-      <c r="C1658" s="19"/>
+      <c r="C1658" s="33" t="s">
+        <v>3054</v>
+      </c>
       <c r="D1658" s="17" t="s">
         <v>21</v>
       </c>

--- a/LOCATION SHEETS/1860sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1860sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30E77F-105D-2243-9799-B59A765ED027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE36CA9E-1D8D-AF47-B51A-61980B6AAFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="460" windowWidth="24260" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8352" uniqueCount="3162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="3168">
   <si>
     <t>LOCATIONS IN 1860s</t>
   </si>
@@ -6724,9 +6724,6 @@
     <t>+Ground level 77 feet, Sea Level 123 feet</t>
   </si>
   <si>
-    <t>Guildford, Poolford, Albury, </t>
-  </si>
-  <si>
     <t>Walton, Eastry, Sandwich</t>
   </si>
   <si>
@@ -7249,9 +7246,6 @@
     <t>Long Sutton Nr Langford Somerset</t>
   </si>
   <si>
-    <t>Wey House (4m fro Taunton) </t>
-  </si>
-  <si>
     <t>Norton Fitzwarren written above in pencil</t>
   </si>
   <si>
@@ -7321,9 +7315,6 @@
     <t>Clifton South Parade</t>
   </si>
   <si>
-    <t>Clifton </t>
-  </si>
-  <si>
     <t>Clifton Royal York Crescent</t>
   </si>
   <si>
@@ -7373,12 +7364,6 @@
   </si>
   <si>
     <t>Titley (Burcher Cottage) Kington</t>
-  </si>
-  <si>
-    <t>MORE RECTORY </t>
-  </si>
-  <si>
-    <t>DUNSLEY MANOR </t>
   </si>
   <si>
     <t>Barnetby M.S. &amp; L.R.</t>
@@ -7590,9 +7575,6 @@
     <t>MS and LR is Manchester, Sheffield and Lincoln Railway - the main station for which in Sheffield was Victoria Station. GR SK360880 (High)</t>
   </si>
   <si>
-    <t>West Melton </t>
-  </si>
-  <si>
     <t>Small village north of Rotherham. Observer is a Rev. Boyd who in 1868 was recorded as minister of the congregtional chapel - gauge is recorded as in the burying ground of the chapel GR SE423009 (high)</t>
   </si>
   <si>
@@ -7815,9 +7797,6 @@
     <t>Roddam Hall Alnwick</t>
   </si>
   <si>
-    <t>Lilburn Tower </t>
-  </si>
-  <si>
     <t>Howick</t>
   </si>
   <si>
@@ -7965,9 +7944,6 @@
     <t>CARMARTHEN JOINT COUNTIES ASYLUM</t>
   </si>
   <si>
-    <t>Rhydwen Llandissilio </t>
-  </si>
-  <si>
     <t>Llandilo Taliaris park</t>
   </si>
   <si>
@@ -8010,9 +7986,6 @@
     <t>Sno 464606 SN(22)967693</t>
   </si>
   <si>
-    <t>Machynlleth Montgom </t>
-  </si>
-  <si>
     <t>on the banks of the dovey </t>
   </si>
   <si>
@@ -8043,9 +8016,6 @@
     <t>Gwysaney Mold</t>
   </si>
   <si>
-    <t>Gwysaney </t>
-  </si>
-  <si>
     <t>Seat of PD Cooke SJ228665 https://coflein.gov.uk/en/site/35855/details/gwysaney-hallgwernymynydd</t>
   </si>
   <si>
@@ -8073,9 +8043,6 @@
     <t>Brymbo</t>
   </si>
   <si>
-    <t>Wrexham Trevalyn Hall Rosset </t>
-  </si>
-  <si>
     <t>No.20</t>
   </si>
   <si>
@@ -8142,9 +8109,6 @@
     <t>GLYN PADARN LAKE LLANBERIS No 8</t>
   </si>
   <si>
-    <t>COCKSIDIA CARNARVON </t>
-  </si>
-  <si>
     <t>DINORWIC QUARRY LLANBERIS No10</t>
   </si>
   <si>
@@ -8190,9 +8154,6 @@
     <t>Grid ref NT 828407</t>
   </si>
   <si>
-    <t>Milne Graden</t>
-  </si>
-  <si>
     <t>Grid ref NT 877442</t>
   </si>
   <si>
@@ -8509,9 +8470,6 @@
   </si>
   <si>
     <t>Dundee Cem Westfield Cottage </t>
-  </si>
-  <si>
-    <t>Arnhall </t>
   </si>
   <si>
     <t>fimacg/Lampyrichard</t>
@@ -8816,9 +8774,6 @@
     <t>Cashel should only have one 'L' at the end Lat 52 30 N Long 8 W</t>
   </si>
   <si>
-    <t>Longraigue Foulkes Mill New Ross </t>
-  </si>
-  <si>
     <t>Courtown House</t>
   </si>
   <si>
@@ -8904,9 +8859,6 @@
   </si>
   <si>
     <t>Athlone Westmeath</t>
-  </si>
-  <si>
-    <t>Twyford Baylin, Athlone </t>
   </si>
   <si>
     <t>Edgeworthstown</t>
@@ -9781,6 +9733,72 @@
   </si>
   <si>
     <t>RR276</t>
+  </si>
+  <si>
+    <t>Arnhall</t>
+  </si>
+  <si>
+    <t>Clifton</t>
+  </si>
+  <si>
+    <t>COCKSIDIA CARNARVON</t>
+  </si>
+  <si>
+    <t>DUNSLEY MANOR</t>
+  </si>
+  <si>
+    <t>Guildford, Poolford, Albury</t>
+  </si>
+  <si>
+    <t>Gwysaney</t>
+  </si>
+  <si>
+    <t>Lilburn Tower</t>
+  </si>
+  <si>
+    <t>Longraigue Foulkes Mill New Ross</t>
+  </si>
+  <si>
+    <t>Machynlleth Montgom</t>
+  </si>
+  <si>
+    <t>MORE RECTORY</t>
+  </si>
+  <si>
+    <t>Rhydwen Llandissilio</t>
+  </si>
+  <si>
+    <t>Twyford Baylin, Athlone</t>
+  </si>
+  <si>
+    <t>West Melton</t>
+  </si>
+  <si>
+    <t>Wey House (4m fro Taunton)</t>
+  </si>
+  <si>
+    <t>Wrexham Trevalyn Hall Rosset</t>
+  </si>
+  <si>
+    <t>RR280</t>
+  </si>
+  <si>
+    <t>RR281</t>
+  </si>
+  <si>
+    <t>RR283</t>
+  </si>
+  <si>
+    <t>RR284</t>
+  </si>
+  <si>
+    <t>Milne Graden Berwick</t>
+  </si>
+  <si>
+    <t>RR285</t>
+  </si>
+  <si>
+    <t>RR287</t>
   </si>
 </sst>
 </file>
@@ -10342,9 +10360,9 @@
   </sheetPr>
   <dimension ref="A1:K2515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A739" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D763" sqref="D763"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A1390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1412" sqref="F1412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -10748,7 +10766,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>3115</v>
+        <v>3099</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>21</v>
@@ -10888,7 +10906,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>3128</v>
+        <v>3112</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>40</v>
@@ -10980,7 +10998,7 @@
         <v>45</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>3063</v>
+        <v>3047</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>45</v>
@@ -11455,7 +11473,7 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="10" t="s">
-        <v>3011</v>
+        <v>2995</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
@@ -12078,7 +12096,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>3115</v>
+        <v>3099</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>102</v>
@@ -12112,7 +12130,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>3071</v>
+        <v>3055</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>104</v>
@@ -12661,7 +12679,7 @@
         <v>17</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>3133</v>
+        <v>3117</v>
       </c>
       <c r="G122" s="30" t="s">
         <v>134</v>
@@ -12683,7 +12701,7 @@
         <v>17</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>3133</v>
+        <v>3117</v>
       </c>
       <c r="G123" s="30" t="s">
         <v>134</v>
@@ -12954,7 +12972,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>2218</v>
+        <v>3150</v>
       </c>
       <c r="H137" s="30"/>
     </row>
@@ -13378,7 +13396,7 @@
         <v>18</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="H160" s="30"/>
     </row>
@@ -13400,7 +13418,7 @@
         <v>18</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="H161" s="30"/>
     </row>
@@ -13454,10 +13472,10 @@
         <v>18</v>
       </c>
       <c r="G164" s="30" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H164" s="30" t="s">
         <v>2221</v>
-      </c>
-      <c r="H164" s="30" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13">
@@ -13512,7 +13530,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="H167" s="30"/>
     </row>
@@ -13536,7 +13554,7 @@
         <v>18</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="H168" s="30"/>
     </row>
@@ -13590,7 +13608,7 @@
         <v>18</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="H171" s="30"/>
     </row>
@@ -13612,7 +13630,7 @@
         <v>18</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="H172" s="30"/>
     </row>
@@ -13634,7 +13652,7 @@
         <v>18</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="H173" s="30"/>
     </row>
@@ -13656,7 +13674,7 @@
         <v>18</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H174" s="30"/>
     </row>
@@ -13678,10 +13696,10 @@
         <v>18</v>
       </c>
       <c r="G175" s="30" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H175" s="30" t="s">
         <v>2229</v>
-      </c>
-      <c r="H175" s="30" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="13">
@@ -13702,7 +13720,7 @@
         <v>18</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H176" s="30"/>
     </row>
@@ -13740,7 +13758,7 @@
         <v>18</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="H178" s="30"/>
     </row>
@@ -13764,7 +13782,7 @@
         <v>18</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="H179" s="30"/>
     </row>
@@ -13788,7 +13806,7 @@
         <v>18</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="H180" s="30"/>
     </row>
@@ -13810,7 +13828,7 @@
         <v>18</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="H181" s="30"/>
     </row>
@@ -13832,7 +13850,7 @@
         <v>18</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="H182" s="30"/>
     </row>
@@ -13854,7 +13872,7 @@
         <v>18</v>
       </c>
       <c r="G183" s="30" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="H183" s="30"/>
     </row>
@@ -13892,7 +13910,7 @@
         <v>18</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H185" s="30"/>
     </row>
@@ -13970,7 +13988,7 @@
         <v>41</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>3000</v>
+        <v>2984</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>187</v>
@@ -14110,10 +14128,10 @@
       </c>
       <c r="F198" s="30"/>
       <c r="G198" s="30" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H198" s="30" t="s">
         <v>2239</v>
-      </c>
-      <c r="H198" s="30" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="13">
@@ -14150,7 +14168,7 @@
         <v>18</v>
       </c>
       <c r="G200" s="30" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="H200" s="30"/>
     </row>
@@ -14174,7 +14192,7 @@
         <v>18</v>
       </c>
       <c r="G201" s="30" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="H201" s="30"/>
     </row>
@@ -14276,7 +14294,7 @@
         <v>18</v>
       </c>
       <c r="G207" s="30" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="H207" s="30"/>
     </row>
@@ -14346,7 +14364,7 @@
         <v>18</v>
       </c>
       <c r="G211" s="30" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="H211" s="30"/>
     </row>
@@ -14368,7 +14386,7 @@
         <v>18</v>
       </c>
       <c r="G212" s="30" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="H212" s="30"/>
     </row>
@@ -14390,7 +14408,7 @@
         <v>18</v>
       </c>
       <c r="G213" s="30" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="H213" s="30"/>
     </row>
@@ -15116,7 +15134,7 @@
         <v>104</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>3119</v>
+        <v>3103</v>
       </c>
       <c r="D253" s="17" t="s">
         <v>252</v>
@@ -15706,7 +15724,7 @@
         <v>137</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>3102</v>
+        <v>3086</v>
       </c>
       <c r="D286" s="17" t="s">
         <v>286</v>
@@ -15972,11 +15990,11 @@
         <v>304</v>
       </c>
       <c r="E300" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F300" s="30"/>
       <c r="G300" s="30" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="H300" s="30"/>
     </row>
@@ -15992,14 +16010,14 @@
         <v>21</v>
       </c>
       <c r="E301" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F301" s="30"/>
       <c r="G301" s="30" t="s">
+        <v>2248</v>
+      </c>
+      <c r="H301" s="30" t="s">
         <v>2249</v>
-      </c>
-      <c r="H301" s="30" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="13">
@@ -16014,14 +16032,14 @@
         <v>21</v>
       </c>
       <c r="E302" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F302" s="30"/>
       <c r="G302" s="30" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="H302" s="30" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="13">
@@ -16038,7 +16056,7 @@
         <v>305</v>
       </c>
       <c r="E303" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F303" s="30" t="s">
         <v>18</v>
@@ -16074,11 +16092,11 @@
         <v>21</v>
       </c>
       <c r="E305" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F305" s="30"/>
       <c r="G305" s="30" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H305" s="30"/>
     </row>
@@ -16094,11 +16112,11 @@
         <v>21</v>
       </c>
       <c r="E306" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F306" s="30"/>
       <c r="G306" s="30" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="H306" s="30"/>
     </row>
@@ -16133,7 +16151,7 @@
       <c r="F308" s="30"/>
       <c r="G308" s="30"/>
       <c r="H308" s="30" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="13">
@@ -16151,7 +16169,7 @@
       <c r="F309" s="30"/>
       <c r="G309" s="30"/>
       <c r="H309" s="30" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="13">
@@ -16168,7 +16186,7 @@
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
       <c r="G310" s="30" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H310" s="30"/>
     </row>
@@ -16187,7 +16205,7 @@
       <c r="F311" s="30"/>
       <c r="G311" s="30"/>
       <c r="H311" s="30" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="13">
@@ -16250,11 +16268,11 @@
         <v>21</v>
       </c>
       <c r="E315" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F315" s="30"/>
       <c r="G315" s="30" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="H315" s="30"/>
     </row>
@@ -16286,11 +16304,11 @@
         <v>21</v>
       </c>
       <c r="E317" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F317" s="30"/>
       <c r="G317" s="30" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="H317" s="30"/>
     </row>
@@ -16324,7 +16342,7 @@
         <v>315</v>
       </c>
       <c r="E319" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F319" s="30">
         <v>643</v>
@@ -16344,11 +16362,11 @@
         <v>21</v>
       </c>
       <c r="E320" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F320" s="30"/>
       <c r="G320" s="30" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="H320" s="30"/>
     </row>
@@ -16364,11 +16382,11 @@
         <v>21</v>
       </c>
       <c r="E321" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F321" s="30"/>
       <c r="G321" s="30" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="H321" s="30"/>
     </row>
@@ -16384,11 +16402,11 @@
         <v>21</v>
       </c>
       <c r="E322" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F322" s="30"/>
       <c r="G322" s="30" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="H322" s="30"/>
     </row>
@@ -16404,11 +16422,11 @@
         <v>21</v>
       </c>
       <c r="E323" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F323" s="30"/>
       <c r="G323" s="30" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="H323" s="30"/>
     </row>
@@ -16456,16 +16474,16 @@
         <v>21</v>
       </c>
       <c r="E326" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F326" s="30">
         <v>650</v>
       </c>
       <c r="G326" s="30" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H326" s="30" t="s">
         <v>2264</v>
-      </c>
-      <c r="H326" s="30" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="13">
@@ -16480,16 +16498,16 @@
         <v>21</v>
       </c>
       <c r="E327" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F327" s="30">
         <v>650</v>
       </c>
       <c r="G327" s="30" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H327" s="30" t="s">
         <v>2266</v>
-      </c>
-      <c r="H327" s="30" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="13">
@@ -16504,16 +16522,16 @@
         <v>21</v>
       </c>
       <c r="E328" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F328" s="30">
         <v>650</v>
       </c>
       <c r="G328" s="30" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H328" s="30" t="s">
         <v>2268</v>
-      </c>
-      <c r="H328" s="30" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="13">
@@ -16544,11 +16562,11 @@
         <v>21</v>
       </c>
       <c r="E330" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F330" s="30"/>
       <c r="G330" s="30" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="H330" s="30"/>
     </row>
@@ -16566,7 +16584,7 @@
         <v>319</v>
       </c>
       <c r="E331" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F331" s="30" t="s">
         <v>18</v>
@@ -16618,14 +16636,14 @@
         <v>21</v>
       </c>
       <c r="E334" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F334" s="30"/>
       <c r="G334" s="30" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H334" s="30" t="s">
         <v>2271</v>
-      </c>
-      <c r="H334" s="30" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="13">
@@ -16704,7 +16722,7 @@
         <v>21</v>
       </c>
       <c r="E339" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F339" s="30"/>
       <c r="G339" s="30" t="s">
@@ -16966,11 +16984,11 @@
         <v>21</v>
       </c>
       <c r="E355" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F355" s="30"/>
       <c r="G355" s="30" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="H355" s="30"/>
     </row>
@@ -17068,11 +17086,11 @@
         <v>21</v>
       </c>
       <c r="E361" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="30" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="H361" s="30"/>
     </row>
@@ -17090,13 +17108,13 @@
         <v>21</v>
       </c>
       <c r="E362" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F362" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G362" s="30" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="H362" s="30"/>
     </row>
@@ -17124,17 +17142,17 @@
         <v>65</v>
       </c>
       <c r="C364" s="33" t="s">
-        <v>3027</v>
+        <v>3011</v>
       </c>
       <c r="D364" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E364" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F364" s="30"/>
       <c r="G364" s="30" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H364" s="30"/>
     </row>
@@ -17166,11 +17184,11 @@
         <v>21</v>
       </c>
       <c r="E366" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F366" s="30"/>
       <c r="G366" s="30" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="H366" s="30"/>
     </row>
@@ -17182,7 +17200,7 @@
         <v>68</v>
       </c>
       <c r="C367" s="33" t="s">
-        <v>3129</v>
+        <v>3113</v>
       </c>
       <c r="D367" s="17" t="s">
         <v>344</v>
@@ -17204,11 +17222,11 @@
         <v>21</v>
       </c>
       <c r="E368" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F368" s="30"/>
       <c r="G368" s="30" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H368" s="30"/>
     </row>
@@ -17240,11 +17258,11 @@
         <v>21</v>
       </c>
       <c r="E370" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F370" s="30"/>
       <c r="G370" s="30" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="H370" s="30"/>
     </row>
@@ -17276,11 +17294,11 @@
         <v>21</v>
       </c>
       <c r="E372" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="30" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="H372" s="30"/>
     </row>
@@ -17296,11 +17314,11 @@
         <v>21</v>
       </c>
       <c r="E373" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F373" s="30"/>
       <c r="G373" s="30" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="H373" s="30"/>
     </row>
@@ -17334,7 +17352,7 @@
         <v>348</v>
       </c>
       <c r="E375" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F375" s="30" t="s">
         <v>18</v>
@@ -17366,17 +17384,17 @@
         <v>78</v>
       </c>
       <c r="C377" s="33" t="s">
-        <v>3092</v>
+        <v>3076</v>
       </c>
       <c r="D377" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E377" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F377" s="30"/>
       <c r="G377" s="30" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="H377" s="30"/>
     </row>
@@ -17392,11 +17410,11 @@
         <v>21</v>
       </c>
       <c r="E378" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F378" s="30"/>
       <c r="G378" s="30" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="H378" s="30"/>
     </row>
@@ -17412,11 +17430,11 @@
         <v>21</v>
       </c>
       <c r="E379" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="30" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="H379" s="30"/>
     </row>
@@ -17432,11 +17450,11 @@
         <v>21</v>
       </c>
       <c r="E380" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F380" s="30"/>
       <c r="G380" s="30" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="H380" s="30"/>
     </row>
@@ -17464,7 +17482,7 @@
         <v>83</v>
       </c>
       <c r="C382" s="33" t="s">
-        <v>3094</v>
+        <v>3078</v>
       </c>
       <c r="D382" s="17" t="s">
         <v>351</v>
@@ -17502,11 +17520,11 @@
         <v>21</v>
       </c>
       <c r="E384" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F384" s="30"/>
       <c r="G384" s="30" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="H384" s="30"/>
     </row>
@@ -17524,7 +17542,7 @@
         <v>353</v>
       </c>
       <c r="E385" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F385" s="30"/>
       <c r="G385" s="30"/>
@@ -17544,7 +17562,7 @@
         <v>354</v>
       </c>
       <c r="E386" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F386" s="30" t="s">
         <v>18</v>
@@ -17598,7 +17616,7 @@
         <v>357</v>
       </c>
       <c r="E389" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F389" s="30" t="s">
         <v>18</v>
@@ -17614,18 +17632,18 @@
         <v>91</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>2987</v>
+        <v>2971</v>
       </c>
       <c r="D390" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E390" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F390" s="30"/>
       <c r="G390" s="30"/>
       <c r="H390" s="30" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="13">
@@ -17642,11 +17660,11 @@
         <v>21</v>
       </c>
       <c r="E391" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="F391" s="30"/>
       <c r="G391" s="30" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="H391" s="30"/>
     </row>
@@ -17668,10 +17686,10 @@
         <v>18</v>
       </c>
       <c r="G392" s="30" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H392" s="30" t="s">
         <v>2289</v>
-      </c>
-      <c r="H392" s="30" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="13">
@@ -17692,7 +17710,7 @@
         <v>18</v>
       </c>
       <c r="G393" s="30" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="H393" s="30"/>
     </row>
@@ -17714,7 +17732,7 @@
         <v>18</v>
       </c>
       <c r="G394" s="30" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="H394" s="30"/>
     </row>
@@ -17765,10 +17783,10 @@
         <v>17</v>
       </c>
       <c r="F397" s="30" t="s">
-        <v>3075</v>
+        <v>3059</v>
       </c>
       <c r="G397" s="30" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="H397" s="30"/>
     </row>
@@ -17806,7 +17824,7 @@
       </c>
       <c r="F399" s="30"/>
       <c r="G399" s="30" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="H399" s="30"/>
     </row>
@@ -17837,7 +17855,7 @@
       </c>
       <c r="C401" s="19"/>
       <c r="D401" s="10" t="s">
-        <v>2972</v>
+        <v>2956</v>
       </c>
       <c r="E401" s="30"/>
       <c r="F401" s="30"/>
@@ -17860,7 +17878,7 @@
       </c>
       <c r="F402" s="30"/>
       <c r="G402" s="30" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="H402" s="30"/>
     </row>
@@ -17910,14 +17928,14 @@
         <v>21</v>
       </c>
       <c r="E405" s="30" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="F405" s="31"/>
       <c r="G405" s="30" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H405" s="30" t="s">
         <v>2297</v>
-      </c>
-      <c r="H405" s="30" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="13">
@@ -17970,7 +17988,7 @@
         <v>961</v>
       </c>
       <c r="G408" s="30" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="H408" s="30"/>
     </row>
@@ -18006,7 +18024,7 @@
       </c>
       <c r="F410" s="30"/>
       <c r="G410" s="30" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="H410" s="30"/>
     </row>
@@ -18114,10 +18132,10 @@
         <v>27</v>
       </c>
       <c r="C417" s="33" t="s">
-        <v>3114</v>
+        <v>3098</v>
       </c>
       <c r="D417" s="10" t="s">
-        <v>3113</v>
+        <v>3097</v>
       </c>
       <c r="E417" s="30"/>
       <c r="F417" s="30"/>
@@ -18204,7 +18222,7 @@
       </c>
       <c r="F422" s="30"/>
       <c r="G422" s="30" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H422" s="30"/>
     </row>
@@ -18220,14 +18238,14 @@
         <v>21</v>
       </c>
       <c r="E423" s="30" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F423" s="30"/>
       <c r="G423" s="34" t="s">
-        <v>2913</v>
+        <v>2897</v>
       </c>
       <c r="H423" s="30" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="13">
@@ -18246,10 +18264,10 @@
       </c>
       <c r="F424" s="30"/>
       <c r="G424" s="30" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H424" s="30" t="s">
         <v>2304</v>
-      </c>
-      <c r="H424" s="30" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="13">
@@ -18286,10 +18304,10 @@
       </c>
       <c r="F426" s="30"/>
       <c r="G426" s="30" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H426" s="30" t="s">
         <v>2306</v>
-      </c>
-      <c r="H426" s="30" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="13">
@@ -18318,7 +18336,7 @@
         <v>38</v>
       </c>
       <c r="C428" s="33" t="s">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="D428" s="17" t="s">
         <v>21</v>
@@ -18328,10 +18346,10 @@
       </c>
       <c r="F428" s="30"/>
       <c r="G428" s="30" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="H428" s="30" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="13">
@@ -18342,7 +18360,7 @@
         <v>39</v>
       </c>
       <c r="C429" s="33" t="s">
-        <v>2998</v>
+        <v>2982</v>
       </c>
       <c r="D429" s="17" t="s">
         <v>383</v>
@@ -18360,7 +18378,7 @@
         <v>40</v>
       </c>
       <c r="C430" s="33" t="s">
-        <v>2998</v>
+        <v>2982</v>
       </c>
       <c r="D430" s="17" t="s">
         <v>384</v>
@@ -18420,10 +18438,10 @@
       </c>
       <c r="F433" s="30"/>
       <c r="G433" s="30" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H433" s="30" t="s">
         <v>2309</v>
-      </c>
-      <c r="H433" s="30" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="13">
@@ -18442,10 +18460,10 @@
       </c>
       <c r="F434" s="30"/>
       <c r="G434" s="30" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H434" s="30" t="s">
         <v>2311</v>
-      </c>
-      <c r="H434" s="30" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="13">
@@ -18530,10 +18548,10 @@
       </c>
       <c r="F439" s="30"/>
       <c r="G439" s="31" t="s">
-        <v>2937</v>
+        <v>2921</v>
       </c>
       <c r="H439" s="30" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="440" spans="1:8" ht="13">
@@ -18554,10 +18572,10 @@
       </c>
       <c r="F440" s="30"/>
       <c r="G440" s="30" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H440" s="30" t="s">
         <v>2314</v>
-      </c>
-      <c r="H440" s="30" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="13">
@@ -18592,7 +18610,7 @@
       </c>
       <c r="F442" s="30"/>
       <c r="G442" s="30" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="H442" s="30"/>
     </row>
@@ -18662,7 +18680,7 @@
       </c>
       <c r="F446" s="30"/>
       <c r="G446" s="30" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="H446" s="30"/>
     </row>
@@ -18764,7 +18782,7 @@
       </c>
       <c r="F452" s="30"/>
       <c r="G452" s="30" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="H452" s="30"/>
     </row>
@@ -18811,7 +18829,7 @@
         <v>1115</v>
       </c>
       <c r="D455" s="10" t="s">
-        <v>2971</v>
+        <v>2955</v>
       </c>
       <c r="E455" s="30"/>
       <c r="F455" s="30"/>
@@ -18852,7 +18870,7 @@
       </c>
       <c r="F457" s="30"/>
       <c r="G457" s="30" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="H457" s="30"/>
     </row>
@@ -18922,7 +18940,7 @@
       </c>
       <c r="F461" s="30"/>
       <c r="G461" s="30" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="H461" s="30"/>
     </row>
@@ -18937,7 +18955,7 @@
         <v>1147</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>3158</v>
+        <v>3142</v>
       </c>
       <c r="E462" s="30"/>
       <c r="F462" s="30"/>
@@ -18976,7 +18994,7 @@
       </c>
       <c r="F464" s="30"/>
       <c r="G464" s="30" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="H464" s="30"/>
     </row>
@@ -18996,10 +19014,10 @@
       </c>
       <c r="F465" s="30"/>
       <c r="G465" s="30" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H465" s="30" t="s">
         <v>2322</v>
-      </c>
-      <c r="H465" s="30" t="s">
-        <v>2323</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="13">
@@ -19018,7 +19036,7 @@
       </c>
       <c r="F466" s="30"/>
       <c r="G466" s="30" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="H466" s="30"/>
     </row>
@@ -19110,7 +19128,7 @@
       </c>
       <c r="F471" s="30"/>
       <c r="G471" s="30" t="s">
-        <v>3042</v>
+        <v>3026</v>
       </c>
       <c r="H471" s="30" t="s">
         <v>412</v>
@@ -19511,7 +19529,7 @@
       </c>
       <c r="C493" s="19"/>
       <c r="D493" s="10" t="s">
-        <v>3099</v>
+        <v>3083</v>
       </c>
       <c r="E493" s="30"/>
       <c r="F493" s="30"/>
@@ -19590,7 +19608,7 @@
         <v>32</v>
       </c>
       <c r="C498" s="33" t="s">
-        <v>2994</v>
+        <v>2978</v>
       </c>
       <c r="D498" s="17" t="s">
         <v>21</v>
@@ -19719,7 +19737,7 @@
       </c>
       <c r="C504" s="19"/>
       <c r="D504" s="10" t="s">
-        <v>3120</v>
+        <v>3104</v>
       </c>
       <c r="E504" s="30"/>
       <c r="F504" s="30"/>
@@ -19757,7 +19775,7 @@
       </c>
       <c r="C506" s="19"/>
       <c r="D506" s="10" t="s">
-        <v>3120</v>
+        <v>3104</v>
       </c>
       <c r="E506" s="30"/>
       <c r="F506" s="30"/>
@@ -19773,7 +19791,7 @@
       </c>
       <c r="C507" s="19"/>
       <c r="D507" s="10" t="s">
-        <v>3120</v>
+        <v>3104</v>
       </c>
       <c r="E507" s="30"/>
       <c r="F507" s="30"/>
@@ -20191,7 +20209,7 @@
       </c>
       <c r="C531" s="19"/>
       <c r="D531" s="10" t="s">
-        <v>3139</v>
+        <v>3123</v>
       </c>
       <c r="E531" s="30"/>
       <c r="F531" s="30"/>
@@ -20214,7 +20232,7 @@
       </c>
       <c r="F532" s="30"/>
       <c r="G532" s="30" t="s">
-        <v>3140</v>
+        <v>3124</v>
       </c>
       <c r="H532" s="30"/>
     </row>
@@ -20292,7 +20310,7 @@
         <v>70</v>
       </c>
       <c r="C536" s="33" t="s">
-        <v>2986</v>
+        <v>2970</v>
       </c>
       <c r="D536" s="17" t="s">
         <v>483</v>
@@ -20432,7 +20450,7 @@
         <v>77</v>
       </c>
       <c r="C543" s="33" t="s">
-        <v>3030</v>
+        <v>3014</v>
       </c>
       <c r="D543" s="17" t="s">
         <v>21</v>
@@ -21156,10 +21174,10 @@
         <v>116</v>
       </c>
       <c r="C582" s="33" t="s">
-        <v>3104</v>
+        <v>3088</v>
       </c>
       <c r="D582" s="10" t="s">
-        <v>3103</v>
+        <v>3087</v>
       </c>
       <c r="E582" s="30"/>
       <c r="F582" s="30"/>
@@ -21190,7 +21208,7 @@
         <v>118</v>
       </c>
       <c r="C584" s="33" t="s">
-        <v>3043</v>
+        <v>3027</v>
       </c>
       <c r="D584" s="17" t="s">
         <v>21</v>
@@ -21214,7 +21232,7 @@
         <v>119</v>
       </c>
       <c r="C585" s="33" t="s">
-        <v>3043</v>
+        <v>3027</v>
       </c>
       <c r="D585" s="17" t="s">
         <v>21</v>
@@ -21288,7 +21306,7 @@
         <v>123</v>
       </c>
       <c r="C589" s="33" t="s">
-        <v>3138</v>
+        <v>3122</v>
       </c>
       <c r="D589" s="17" t="s">
         <v>548</v>
@@ -21408,7 +21426,7 @@
       </c>
       <c r="F595" s="30"/>
       <c r="G595" s="30" t="s">
-        <v>3144</v>
+        <v>3128</v>
       </c>
       <c r="H595" s="30" t="s">
         <v>555</v>
@@ -21536,7 +21554,7 @@
         <v>136</v>
       </c>
       <c r="C602" s="33" t="s">
-        <v>3072</v>
+        <v>3056</v>
       </c>
       <c r="D602" s="17" t="s">
         <v>21</v>
@@ -21596,7 +21614,7 @@
         <v>139</v>
       </c>
       <c r="C605" s="33" t="s">
-        <v>3072</v>
+        <v>3056</v>
       </c>
       <c r="D605" s="17" t="s">
         <v>21</v>
@@ -22062,7 +22080,7 @@
       </c>
       <c r="F629" s="30"/>
       <c r="G629" s="30" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="H629" s="30"/>
     </row>
@@ -22094,7 +22112,7 @@
         <v>15</v>
       </c>
       <c r="C631" s="33" t="s">
-        <v>3064</v>
+        <v>3048</v>
       </c>
       <c r="D631" s="17" t="s">
         <v>21</v>
@@ -22477,7 +22495,7 @@
         <v>583</v>
       </c>
       <c r="F651" s="30" t="s">
-        <v>3155</v>
+        <v>3139</v>
       </c>
       <c r="G651" s="30" t="s">
         <v>619</v>
@@ -22958,7 +22976,7 @@
         <v>61</v>
       </c>
       <c r="C677" s="33" t="s">
-        <v>2961</v>
+        <v>2945</v>
       </c>
       <c r="D677" s="17" t="s">
         <v>21</v>
@@ -22968,7 +22986,7 @@
       </c>
       <c r="F677" s="30"/>
       <c r="G677" s="30" t="s">
-        <v>2962</v>
+        <v>2946</v>
       </c>
       <c r="H677" s="30" t="s">
         <v>646</v>
@@ -23050,7 +23068,7 @@
         <v>66</v>
       </c>
       <c r="C682" s="33" t="s">
-        <v>3021</v>
+        <v>3005</v>
       </c>
       <c r="D682" s="17" t="s">
         <v>21</v>
@@ -23774,10 +23792,10 @@
         <v>106</v>
       </c>
       <c r="C722" s="33" t="s">
-        <v>3014</v>
+        <v>2998</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>3013</v>
+        <v>2997</v>
       </c>
       <c r="E722" s="30"/>
       <c r="F722" s="30"/>
@@ -23852,7 +23870,7 @@
         <v>110</v>
       </c>
       <c r="C726" s="33" t="s">
-        <v>3127</v>
+        <v>3111</v>
       </c>
       <c r="D726" s="17" t="s">
         <v>700</v>
@@ -23980,7 +23998,7 @@
       </c>
       <c r="F733" s="30"/>
       <c r="G733" s="30" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="H733" s="30"/>
     </row>
@@ -23993,7 +24011,7 @@
       </c>
       <c r="C734" s="19"/>
       <c r="D734" s="10" t="s">
-        <v>3017</v>
+        <v>3001</v>
       </c>
       <c r="E734" s="30"/>
       <c r="F734" s="30"/>
@@ -24019,7 +24037,7 @@
       <c r="F735" s="30"/>
       <c r="G735" s="30"/>
       <c r="H735" s="30" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="736" spans="1:8" ht="13">
@@ -24046,7 +24064,7 @@
         <v>121</v>
       </c>
       <c r="C737" s="33" t="s">
-        <v>3126</v>
+        <v>3110</v>
       </c>
       <c r="D737" s="17" t="s">
         <v>710</v>
@@ -24064,7 +24082,7 @@
         <v>122</v>
       </c>
       <c r="C738" s="33" t="s">
-        <v>3126</v>
+        <v>3110</v>
       </c>
       <c r="D738" s="17" t="s">
         <v>711</v>
@@ -24106,7 +24124,7 @@
       </c>
       <c r="F740" s="30"/>
       <c r="G740" s="30" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="H740" s="30"/>
     </row>
@@ -24125,10 +24143,10 @@
         <v>1033</v>
       </c>
       <c r="F741" s="30" t="s">
-        <v>3154</v>
+        <v>3138</v>
       </c>
       <c r="G741" s="30" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="H741" s="30"/>
     </row>
@@ -24164,7 +24182,7 @@
       </c>
       <c r="F743" s="30"/>
       <c r="G743" s="30" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="H743" s="30"/>
     </row>
@@ -24216,7 +24234,7 @@
       </c>
       <c r="F746" s="30"/>
       <c r="G746" s="30" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="H746" s="30"/>
     </row>
@@ -24236,7 +24254,7 @@
       </c>
       <c r="F747" s="30"/>
       <c r="G747" s="30" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="H747" s="30"/>
     </row>
@@ -24274,10 +24292,10 @@
         <v>1813</v>
       </c>
       <c r="G749" s="30" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H749" s="30" t="s">
         <v>2333</v>
-      </c>
-      <c r="H749" s="30" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="750" spans="1:8" ht="13">
@@ -24328,7 +24346,7 @@
       </c>
       <c r="F752" s="30"/>
       <c r="G752" s="30" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="H752" s="30"/>
     </row>
@@ -24430,7 +24448,7 @@
       </c>
       <c r="F758" s="30"/>
       <c r="G758" s="30" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="H758" s="30"/>
     </row>
@@ -24442,7 +24460,7 @@
         <v>143</v>
       </c>
       <c r="C759" s="33" t="s">
-        <v>3161</v>
+        <v>3145</v>
       </c>
       <c r="D759" s="17" t="s">
         <v>724</v>
@@ -24468,7 +24486,7 @@
       </c>
       <c r="F760" s="30"/>
       <c r="G760" s="30" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="H760" s="30"/>
     </row>
@@ -24488,7 +24506,7 @@
       </c>
       <c r="F761" s="30"/>
       <c r="G761" s="30" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="H761" s="30"/>
     </row>
@@ -24510,7 +24528,7 @@
       </c>
       <c r="F762" s="30"/>
       <c r="G762" s="30" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="H762" s="30"/>
     </row>
@@ -24543,7 +24561,7 @@
       </c>
       <c r="C764" s="19"/>
       <c r="D764" s="10" t="s">
-        <v>2959</v>
+        <v>2943</v>
       </c>
       <c r="E764" s="30"/>
       <c r="F764" s="30"/>
@@ -24566,7 +24584,7 @@
       </c>
       <c r="F765" s="30"/>
       <c r="G765" s="30" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="H765" s="30"/>
     </row>
@@ -24610,7 +24628,7 @@
         <v>152</v>
       </c>
       <c r="C768" s="33" t="s">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="D768" s="17" t="s">
         <v>21</v>
@@ -24620,7 +24638,7 @@
       </c>
       <c r="F768" s="30"/>
       <c r="G768" s="30" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="H768" s="30"/>
     </row>
@@ -24642,10 +24660,10 @@
       </c>
       <c r="F769" s="30"/>
       <c r="G769" s="30" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H769" s="30" t="s">
         <v>2342</v>
-      </c>
-      <c r="H769" s="30" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="770" spans="1:8" ht="13">
@@ -24680,7 +24698,7 @@
       </c>
       <c r="F771" s="30"/>
       <c r="G771" s="30" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="H771" s="30"/>
     </row>
@@ -24716,7 +24734,7 @@
       </c>
       <c r="F773" s="30"/>
       <c r="G773" s="30" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="H773" s="30"/>
     </row>
@@ -24738,7 +24756,7 @@
       </c>
       <c r="F774" s="30"/>
       <c r="G774" s="30" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="H774" s="30"/>
     </row>
@@ -24750,7 +24768,7 @@
         <v>5</v>
       </c>
       <c r="C775" s="33" t="s">
-        <v>3108</v>
+        <v>3092</v>
       </c>
       <c r="D775" s="17" t="s">
         <v>21</v>
@@ -24760,7 +24778,7 @@
       </c>
       <c r="F775" s="30"/>
       <c r="G775" s="30" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="H775" s="30"/>
     </row>
@@ -24798,7 +24816,7 @@
       </c>
       <c r="F777" s="30"/>
       <c r="G777" s="30" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="H777" s="30"/>
     </row>
@@ -24866,7 +24884,7 @@
       </c>
       <c r="F781" s="30"/>
       <c r="G781" s="30" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="H781" s="30"/>
     </row>
@@ -24886,7 +24904,7 @@
       </c>
       <c r="F782" s="30"/>
       <c r="G782" s="30" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="H782" s="30"/>
     </row>
@@ -24906,7 +24924,7 @@
       </c>
       <c r="F783" s="30"/>
       <c r="G783" s="30" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="H783" s="30"/>
     </row>
@@ -24926,7 +24944,7 @@
       </c>
       <c r="F784" s="30"/>
       <c r="G784" s="30" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="H784" s="30"/>
     </row>
@@ -24946,7 +24964,7 @@
       </c>
       <c r="F785" s="30"/>
       <c r="G785" s="30" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="H785" s="30"/>
     </row>
@@ -25030,7 +25048,7 @@
       </c>
       <c r="F790" s="30"/>
       <c r="G790" s="30" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="H790" s="30"/>
     </row>
@@ -25050,10 +25068,10 @@
       </c>
       <c r="F791" s="30"/>
       <c r="G791" s="30" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H791" s="30" t="s">
         <v>2355</v>
-      </c>
-      <c r="H791" s="30" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="792" spans="1:8" ht="13">
@@ -25088,7 +25106,7 @@
       </c>
       <c r="F793" s="30"/>
       <c r="G793" s="30" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="H793" s="30"/>
     </row>
@@ -25124,7 +25142,7 @@
       </c>
       <c r="F795" s="30"/>
       <c r="G795" s="30" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="H795" s="30"/>
     </row>
@@ -25144,7 +25162,7 @@
       </c>
       <c r="F796" s="30"/>
       <c r="G796" s="30" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="H796" s="30"/>
     </row>
@@ -25164,10 +25182,10 @@
       </c>
       <c r="F797" s="30"/>
       <c r="G797" s="30" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H797" s="30" t="s">
         <v>2360</v>
-      </c>
-      <c r="H797" s="30" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="798" spans="1:8" ht="13">
@@ -25186,7 +25204,7 @@
       </c>
       <c r="F798" s="30"/>
       <c r="G798" s="30" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="H798" s="30"/>
     </row>
@@ -25206,7 +25224,7 @@
       </c>
       <c r="F799" s="30"/>
       <c r="G799" s="30" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="H799" s="30"/>
     </row>
@@ -25258,7 +25276,7 @@
       </c>
       <c r="F802" s="30"/>
       <c r="G802" s="30" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="H802" s="30"/>
     </row>
@@ -25270,7 +25288,7 @@
         <v>33</v>
       </c>
       <c r="C803" s="33" t="s">
-        <v>3023</v>
+        <v>3007</v>
       </c>
       <c r="D803" s="17" t="s">
         <v>744</v>
@@ -25280,10 +25298,10 @@
       </c>
       <c r="F803" s="30"/>
       <c r="G803" s="30" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H803" s="30" t="s">
         <v>2364</v>
-      </c>
-      <c r="H803" s="30" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="804" spans="1:8" ht="13">
@@ -25302,7 +25320,7 @@
       </c>
       <c r="F804" s="30"/>
       <c r="G804" s="30" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="H804" s="30"/>
     </row>
@@ -25340,10 +25358,10 @@
       </c>
       <c r="F806" s="30"/>
       <c r="G806" s="30" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H806" s="30" t="s">
         <v>2367</v>
-      </c>
-      <c r="H806" s="30" t="s">
-        <v>2368</v>
       </c>
     </row>
     <row r="807" spans="1:8" ht="13">
@@ -25504,7 +25522,7 @@
         <v>45</v>
       </c>
       <c r="C815" s="33" t="s">
-        <v>2965</v>
+        <v>2949</v>
       </c>
       <c r="D815" s="17" t="s">
         <v>21</v>
@@ -25526,7 +25544,7 @@
         <v>46</v>
       </c>
       <c r="C816" s="33" t="s">
-        <v>2964</v>
+        <v>2948</v>
       </c>
       <c r="D816" s="17" t="s">
         <v>21</v>
@@ -25667,7 +25685,9 @@
       <c r="B824" s="18">
         <v>54</v>
       </c>
-      <c r="C824" s="19"/>
+      <c r="C824" s="19">
+        <v>1959</v>
+      </c>
       <c r="D824" s="17" t="s">
         <v>752</v>
       </c>
@@ -25732,7 +25752,7 @@
       </c>
       <c r="F827" s="31"/>
       <c r="G827" s="30" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="H827" s="30"/>
     </row>
@@ -25752,7 +25772,7 @@
       </c>
       <c r="F828" s="30"/>
       <c r="G828" s="30" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="H828" s="30"/>
     </row>
@@ -25847,7 +25867,7 @@
         <v>2209</v>
       </c>
       <c r="H833" s="30" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="834" spans="1:8" ht="13">
@@ -25869,7 +25889,7 @@
         <v>2210</v>
       </c>
       <c r="H834" s="30" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="835" spans="1:8" ht="13">
@@ -25907,7 +25927,7 @@
         <v>2211</v>
       </c>
       <c r="H836" s="30" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="837" spans="1:8" ht="13">
@@ -25918,7 +25938,7 @@
         <v>67</v>
       </c>
       <c r="C837" s="33" t="s">
-        <v>3026</v>
+        <v>3010</v>
       </c>
       <c r="D837" s="17" t="s">
         <v>21</v>
@@ -26020,7 +26040,7 @@
         <v>1988</v>
       </c>
       <c r="G842" s="30" t="s">
-        <v>2943</v>
+        <v>2927</v>
       </c>
       <c r="H842" s="30"/>
     </row>
@@ -26044,10 +26064,10 @@
         <v>1992</v>
       </c>
       <c r="G843" s="30" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H843" s="30" t="s">
         <v>2374</v>
-      </c>
-      <c r="H843" s="30" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="844" spans="1:8" ht="13">
@@ -26156,7 +26176,7 @@
       </c>
       <c r="F849" s="30"/>
       <c r="G849" s="30" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H849" s="30"/>
     </row>
@@ -26210,10 +26230,10 @@
       </c>
       <c r="F852" s="30"/>
       <c r="G852" s="30" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H852" s="30" t="s">
         <v>2377</v>
-      </c>
-      <c r="H852" s="30" t="s">
-        <v>2378</v>
       </c>
     </row>
     <row r="853" spans="1:8" ht="13">
@@ -26232,7 +26252,7 @@
       </c>
       <c r="F853" s="30"/>
       <c r="G853" s="30" t="s">
-        <v>2941</v>
+        <v>2925</v>
       </c>
       <c r="H853" s="30"/>
     </row>
@@ -26276,7 +26296,7 @@
         <v>86</v>
       </c>
       <c r="C856" s="33" t="s">
-        <v>3053</v>
+        <v>3037</v>
       </c>
       <c r="D856" s="17" t="s">
         <v>773</v>
@@ -26302,10 +26322,10 @@
       </c>
       <c r="F857" s="30"/>
       <c r="G857" s="30" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H857" s="30" t="s">
         <v>2379</v>
-      </c>
-      <c r="H857" s="30" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="858" spans="1:8" ht="13">
@@ -26356,7 +26376,7 @@
       </c>
       <c r="F860" s="30"/>
       <c r="G860" s="30" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H860" s="30"/>
     </row>
@@ -26388,11 +26408,11 @@
         <v>21</v>
       </c>
       <c r="E862" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F862" s="30"/>
       <c r="G862" s="30" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="H862" s="30"/>
     </row>
@@ -26410,14 +26430,14 @@
         <v>21</v>
       </c>
       <c r="E863" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F863" s="30"/>
       <c r="G863" s="30" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H863" s="30" t="s">
         <v>2384</v>
-      </c>
-      <c r="H863" s="30" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="864" spans="1:8" ht="13">
@@ -26432,11 +26452,11 @@
         <v>21</v>
       </c>
       <c r="E864" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F864" s="30"/>
       <c r="G864" s="30" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="H864" s="30"/>
     </row>
@@ -26452,11 +26472,11 @@
         <v>21</v>
       </c>
       <c r="E865" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F865" s="30"/>
       <c r="G865" s="30" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="H865" s="30"/>
     </row>
@@ -26472,11 +26492,11 @@
         <v>21</v>
       </c>
       <c r="E866" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F866" s="30"/>
       <c r="G866" s="30" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="H866" s="30"/>
     </row>
@@ -26492,14 +26512,14 @@
         <v>21</v>
       </c>
       <c r="E867" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F867" s="30"/>
       <c r="G867" s="30" t="s">
-        <v>2389</v>
+        <v>3159</v>
       </c>
       <c r="H867" s="30" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="868" spans="1:8" ht="13">
@@ -26514,11 +26534,11 @@
         <v>21</v>
       </c>
       <c r="E868" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F868" s="30"/>
       <c r="G868" s="30" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="H868" s="30"/>
     </row>
@@ -26550,11 +26570,11 @@
         <v>21</v>
       </c>
       <c r="E870" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F870" s="30"/>
       <c r="G870" s="30" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="H870" s="30"/>
     </row>
@@ -26570,11 +26590,11 @@
         <v>21</v>
       </c>
       <c r="E871" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F871" s="30"/>
       <c r="G871" s="30" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="H871" s="30"/>
     </row>
@@ -26590,11 +26610,11 @@
         <v>21</v>
       </c>
       <c r="E872" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F872" s="30"/>
       <c r="G872" s="30" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="H872" s="30"/>
     </row>
@@ -26628,11 +26648,11 @@
         <v>21</v>
       </c>
       <c r="E874" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F874" s="30"/>
       <c r="G874" s="30" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="H874" s="30"/>
     </row>
@@ -26684,7 +26704,7 @@
       </c>
       <c r="F877" s="30"/>
       <c r="G877" s="30" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="H877" s="30"/>
     </row>
@@ -26722,7 +26742,7 @@
       </c>
       <c r="F879" s="30"/>
       <c r="G879" s="30" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="H879" s="30"/>
     </row>
@@ -26758,7 +26778,7 @@
       </c>
       <c r="F881" s="30"/>
       <c r="G881" s="30" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="H881" s="30"/>
     </row>
@@ -26778,7 +26798,7 @@
       </c>
       <c r="F882" s="30"/>
       <c r="G882" s="30" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="H882" s="30"/>
     </row>
@@ -26798,7 +26818,7 @@
       </c>
       <c r="F883" s="30"/>
       <c r="G883" s="30" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="H883" s="30"/>
     </row>
@@ -26818,7 +26838,7 @@
       </c>
       <c r="F884" s="30"/>
       <c r="G884" s="30" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="H884" s="30"/>
     </row>
@@ -26942,7 +26962,7 @@
       </c>
       <c r="F891" s="30"/>
       <c r="G891" s="30" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="H891" s="30"/>
     </row>
@@ -26962,7 +26982,7 @@
       </c>
       <c r="F892" s="30"/>
       <c r="G892" s="30" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="H892" s="30"/>
     </row>
@@ -27056,7 +27076,7 @@
       </c>
       <c r="F897" s="30"/>
       <c r="G897" s="30" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="H897" s="30"/>
     </row>
@@ -27078,7 +27098,7 @@
       </c>
       <c r="F898" s="30"/>
       <c r="G898" s="30" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="H898" s="30"/>
     </row>
@@ -27114,10 +27134,10 @@
       </c>
       <c r="F900" s="30"/>
       <c r="G900" s="30" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="H900" s="30" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="901" spans="1:8" ht="13">
@@ -27136,7 +27156,7 @@
       </c>
       <c r="F901" s="30"/>
       <c r="G901" s="30" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="H901" s="30"/>
     </row>
@@ -27164,7 +27184,7 @@
         <v>29</v>
       </c>
       <c r="C903" s="33" t="s">
-        <v>3083</v>
+        <v>3067</v>
       </c>
       <c r="D903" s="17" t="s">
         <v>798</v>
@@ -27190,7 +27210,7 @@
       </c>
       <c r="F904" s="30"/>
       <c r="G904" s="30" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="H904" s="30"/>
     </row>
@@ -27210,7 +27230,7 @@
       </c>
       <c r="F905" s="30"/>
       <c r="G905" s="30" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="H905" s="30"/>
     </row>
@@ -27230,7 +27250,7 @@
       </c>
       <c r="F906" s="30"/>
       <c r="G906" s="30" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="H906" s="30"/>
     </row>
@@ -27252,7 +27272,7 @@
       </c>
       <c r="F907" s="30"/>
       <c r="G907" s="30" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="H907" s="30"/>
     </row>
@@ -27274,7 +27294,7 @@
       </c>
       <c r="F908" s="30"/>
       <c r="G908" s="30" t="s">
-        <v>2413</v>
+        <v>3147</v>
       </c>
       <c r="H908" s="30"/>
     </row>
@@ -27294,7 +27314,7 @@
       </c>
       <c r="F909" s="30"/>
       <c r="G909" s="30" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="H909" s="30"/>
     </row>
@@ -27314,7 +27334,7 @@
       </c>
       <c r="F910" s="30"/>
       <c r="G910" s="30" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="H910" s="30"/>
     </row>
@@ -27350,7 +27370,7 @@
       </c>
       <c r="F912" s="30"/>
       <c r="G912" s="30" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="H912" s="30"/>
     </row>
@@ -27384,12 +27404,14 @@
       <c r="E914" s="30" t="s">
         <v>910</v>
       </c>
-      <c r="F914" s="30"/>
+      <c r="F914" s="30">
+        <v>2198</v>
+      </c>
       <c r="G914" s="30" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="H914" s="30" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="915" spans="1:8" ht="13">
@@ -27416,7 +27438,7 @@
         <v>42</v>
       </c>
       <c r="C916" s="33" t="s">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="D916" s="17" t="s">
         <v>802</v>
@@ -27508,7 +27530,7 @@
       </c>
       <c r="F921" s="30"/>
       <c r="G921" s="30" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="H921" s="30"/>
     </row>
@@ -27536,7 +27558,7 @@
         <v>49</v>
       </c>
       <c r="C923" s="33" t="s">
-        <v>3029</v>
+        <v>3013</v>
       </c>
       <c r="D923" s="17" t="s">
         <v>21</v>
@@ -27546,7 +27568,7 @@
       </c>
       <c r="F923" s="30"/>
       <c r="G923" s="30" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="H923" s="30"/>
     </row>
@@ -27566,7 +27588,7 @@
       </c>
       <c r="F924" s="30"/>
       <c r="G924" s="30" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="H924" s="30"/>
     </row>
@@ -27586,10 +27608,10 @@
       </c>
       <c r="F925" s="30"/>
       <c r="G925" s="30" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="H925" s="30" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="926" spans="1:8" ht="13">
@@ -27608,7 +27630,7 @@
       </c>
       <c r="F926" s="30"/>
       <c r="G926" s="30" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="H926" s="30"/>
     </row>
@@ -27628,7 +27650,7 @@
       </c>
       <c r="F927" s="30"/>
       <c r="G927" s="30" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="H927" s="30"/>
     </row>
@@ -27648,7 +27670,7 @@
       </c>
       <c r="F928" s="30"/>
       <c r="G928" s="30" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="H928" s="30"/>
     </row>
@@ -27663,8 +27685,12 @@
       <c r="D929" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="E929" s="30"/>
-      <c r="F929" s="30"/>
+      <c r="E929" s="30" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F929" s="30">
+        <v>2235</v>
+      </c>
       <c r="G929" s="30"/>
       <c r="H929" s="30"/>
     </row>
@@ -27764,7 +27790,7 @@
       </c>
       <c r="F935" s="30"/>
       <c r="G935" s="30" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="H935" s="30"/>
     </row>
@@ -27784,7 +27810,7 @@
       </c>
       <c r="F936" s="30"/>
       <c r="G936" s="30" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="H936" s="30"/>
     </row>
@@ -27820,7 +27846,7 @@
       </c>
       <c r="F938" s="30"/>
       <c r="G938" s="30" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="H938" s="30"/>
     </row>
@@ -27888,7 +27914,7 @@
       </c>
       <c r="F942" s="30"/>
       <c r="G942" s="30" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="H942" s="30"/>
     </row>
@@ -27908,7 +27934,7 @@
       </c>
       <c r="F943" s="30"/>
       <c r="G943" s="30" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="H943" s="30"/>
     </row>
@@ -28008,7 +28034,7 @@
         <v>5</v>
       </c>
       <c r="C949" s="33" t="s">
-        <v>3003</v>
+        <v>2987</v>
       </c>
       <c r="D949" s="17" t="s">
         <v>21</v>
@@ -28102,7 +28128,7 @@
         <v>10</v>
       </c>
       <c r="C954" s="33" t="s">
-        <v>2963</v>
+        <v>2947</v>
       </c>
       <c r="D954" s="17" t="s">
         <v>829</v>
@@ -28128,7 +28154,7 @@
       </c>
       <c r="F955" s="30"/>
       <c r="G955" s="30" t="s">
-        <v>2431</v>
+        <v>3155</v>
       </c>
       <c r="H955" s="30"/>
     </row>
@@ -28316,7 +28342,7 @@
         <v>21</v>
       </c>
       <c r="C965" s="33" t="s">
-        <v>2944</v>
+        <v>2928</v>
       </c>
       <c r="D965" s="17" t="s">
         <v>21</v>
@@ -28374,7 +28400,7 @@
         <v>24</v>
       </c>
       <c r="C968" s="33" t="s">
-        <v>2996</v>
+        <v>2980</v>
       </c>
       <c r="D968" s="10" t="s">
         <v>21</v>
@@ -28384,7 +28410,7 @@
       </c>
       <c r="F968" s="30"/>
       <c r="G968" s="30" t="s">
-        <v>2995</v>
+        <v>2979</v>
       </c>
       <c r="H968" s="30"/>
     </row>
@@ -28460,7 +28486,7 @@
         <v>29</v>
       </c>
       <c r="C973" s="33" t="s">
-        <v>3050</v>
+        <v>3034</v>
       </c>
       <c r="D973" s="17" t="s">
         <v>21</v>
@@ -28720,7 +28746,7 @@
         <v>43</v>
       </c>
       <c r="C987" s="33" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="D987" s="17" t="s">
         <v>21</v>
@@ -28742,7 +28768,7 @@
         <v>44</v>
       </c>
       <c r="C988" s="33" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="D988" s="17" t="s">
         <v>21</v>
@@ -28766,7 +28792,7 @@
         <v>45</v>
       </c>
       <c r="C989" s="33" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="D989" s="17" t="s">
         <v>21</v>
@@ -28788,7 +28814,7 @@
         <v>46</v>
       </c>
       <c r="C990" s="33" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="D990" s="17" t="s">
         <v>21</v>
@@ -28869,7 +28895,7 @@
         <v>820</v>
       </c>
       <c r="F994" s="30" t="s">
-        <v>3153</v>
+        <v>3137</v>
       </c>
       <c r="G994" s="30" t="s">
         <v>865</v>
@@ -28989,7 +29015,7 @@
       </c>
       <c r="C1001" s="19"/>
       <c r="D1001" s="10" t="s">
-        <v>3055</v>
+        <v>3039</v>
       </c>
       <c r="E1001" s="30"/>
       <c r="F1001" s="30"/>
@@ -29110,7 +29136,7 @@
         <v>64</v>
       </c>
       <c r="C1008" s="33" t="s">
-        <v>2958</v>
+        <v>2942</v>
       </c>
       <c r="D1008" s="17" t="s">
         <v>21</v>
@@ -29176,7 +29202,7 @@
       </c>
       <c r="F1011" s="30"/>
       <c r="G1011" s="30" t="s">
-        <v>3084</v>
+        <v>3068</v>
       </c>
       <c r="H1011" s="30" t="s">
         <v>881</v>
@@ -29274,7 +29300,7 @@
       </c>
       <c r="F1016" s="30"/>
       <c r="G1016" s="30" t="s">
-        <v>2432</v>
+        <v>3149</v>
       </c>
       <c r="H1016" s="30" t="s">
         <v>886</v>
@@ -29288,7 +29314,7 @@
         <v>73</v>
       </c>
       <c r="C1017" s="33" t="s">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="D1017" s="17" t="s">
         <v>887</v>
@@ -29306,7 +29332,7 @@
         <v>74</v>
       </c>
       <c r="C1018" s="33" t="s">
-        <v>2992</v>
+        <v>2976</v>
       </c>
       <c r="D1018" s="17" t="s">
         <v>21</v>
@@ -29316,7 +29342,7 @@
       </c>
       <c r="F1018" s="30"/>
       <c r="G1018" s="30" t="s">
-        <v>2993</v>
+        <v>2977</v>
       </c>
       <c r="H1018" s="30"/>
     </row>
@@ -29708,7 +29734,7 @@
         <v>2</v>
       </c>
       <c r="C1040" s="33" t="s">
-        <v>3039</v>
+        <v>3023</v>
       </c>
       <c r="D1040" s="17" t="s">
         <v>21</v>
@@ -29794,7 +29820,7 @@
         <v>7</v>
       </c>
       <c r="C1045" s="33" t="s">
-        <v>3031</v>
+        <v>3015</v>
       </c>
       <c r="D1045" s="17" t="s">
         <v>21</v>
@@ -30131,7 +30157,7 @@
         <v>910</v>
       </c>
       <c r="F1063" s="30" t="s">
-        <v>3130</v>
+        <v>3114</v>
       </c>
       <c r="G1063" s="30" t="s">
         <v>938</v>
@@ -30203,7 +30229,7 @@
       </c>
       <c r="C1067" s="19"/>
       <c r="D1067" s="10" t="s">
-        <v>3085</v>
+        <v>3069</v>
       </c>
       <c r="E1067" s="30"/>
       <c r="F1067" s="30"/>
@@ -30250,7 +30276,7 @@
         <v>32</v>
       </c>
       <c r="C1070" s="33" t="s">
-        <v>3040</v>
+        <v>3024</v>
       </c>
       <c r="D1070" s="17" t="s">
         <v>944</v>
@@ -30269,7 +30295,7 @@
       </c>
       <c r="C1071" s="19"/>
       <c r="D1071" s="10" t="s">
-        <v>2988</v>
+        <v>2972</v>
       </c>
       <c r="E1071" s="30"/>
       <c r="F1071" s="30"/>
@@ -30434,7 +30460,7 @@
         <v>43</v>
       </c>
       <c r="C1081" s="33" t="s">
-        <v>3073</v>
+        <v>3057</v>
       </c>
       <c r="D1081" s="17" t="s">
         <v>954</v>
@@ -30453,10 +30479,10 @@
       </c>
       <c r="C1082" s="19"/>
       <c r="D1082" s="10" t="s">
-        <v>3149</v>
+        <v>3133</v>
       </c>
       <c r="E1082" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1082" s="30">
         <v>2547</v>
@@ -30499,7 +30525,7 @@
         <v>910</v>
       </c>
       <c r="F1084" s="30" t="s">
-        <v>3159</v>
+        <v>3143</v>
       </c>
       <c r="G1084" s="30" t="s">
         <v>956</v>
@@ -30650,7 +30676,7 @@
         <v>55</v>
       </c>
       <c r="C1093" s="33" t="s">
-        <v>2978</v>
+        <v>2962</v>
       </c>
       <c r="D1093" s="17" t="s">
         <v>964</v>
@@ -30668,7 +30694,7 @@
         <v>56</v>
       </c>
       <c r="C1094" s="33" t="s">
-        <v>2976</v>
+        <v>2960</v>
       </c>
       <c r="D1094" s="17" t="s">
         <v>21</v>
@@ -30706,7 +30732,7 @@
         <v>58</v>
       </c>
       <c r="C1096" s="33" t="s">
-        <v>2975</v>
+        <v>2959</v>
       </c>
       <c r="D1096" s="17" t="s">
         <v>21</v>
@@ -30716,7 +30742,7 @@
       </c>
       <c r="F1096" s="30"/>
       <c r="G1096" s="30" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="H1096" s="30"/>
     </row>
@@ -30728,7 +30754,7 @@
         <v>59</v>
       </c>
       <c r="C1097" s="33" t="s">
-        <v>3004</v>
+        <v>2988</v>
       </c>
       <c r="D1097" s="17" t="s">
         <v>967</v>
@@ -30792,7 +30818,7 @@
         <v>62</v>
       </c>
       <c r="C1100" s="33" t="s">
-        <v>2979</v>
+        <v>2963</v>
       </c>
       <c r="D1100" s="17" t="s">
         <v>971</v>
@@ -30810,7 +30836,7 @@
         <v>63</v>
       </c>
       <c r="C1101" s="33" t="s">
-        <v>2977</v>
+        <v>2961</v>
       </c>
       <c r="D1101" s="17" t="s">
         <v>972</v>
@@ -30829,7 +30855,7 @@
       </c>
       <c r="C1102" s="19"/>
       <c r="D1102" s="10" t="s">
-        <v>2983</v>
+        <v>2967</v>
       </c>
       <c r="E1102" s="30"/>
       <c r="F1102" s="30"/>
@@ -30844,10 +30870,10 @@
         <v>65</v>
       </c>
       <c r="C1103" s="33" t="s">
-        <v>2982</v>
+        <v>2966</v>
       </c>
       <c r="D1103" s="10" t="s">
-        <v>2981</v>
+        <v>2965</v>
       </c>
       <c r="E1103" s="30"/>
       <c r="F1103" s="30"/>
@@ -30862,7 +30888,7 @@
         <v>66</v>
       </c>
       <c r="C1104" s="33" t="s">
-        <v>2980</v>
+        <v>2964</v>
       </c>
       <c r="D1104" s="17" t="s">
         <v>973</v>
@@ -30880,7 +30906,7 @@
         <v>67</v>
       </c>
       <c r="C1105" s="33" t="s">
-        <v>2954</v>
+        <v>2938</v>
       </c>
       <c r="D1105" s="17" t="s">
         <v>974</v>
@@ -31070,7 +31096,7 @@
         <v>21</v>
       </c>
       <c r="E1115" s="30" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="F1115" s="31">
         <v>2630</v>
@@ -31079,7 +31105,7 @@
         <v>985</v>
       </c>
       <c r="H1115" s="30" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1116" spans="1:8" ht="13">
@@ -31090,7 +31116,7 @@
         <v>78</v>
       </c>
       <c r="C1116" s="33" t="s">
-        <v>2968</v>
+        <v>2952</v>
       </c>
       <c r="D1116" s="17" t="s">
         <v>986</v>
@@ -31250,7 +31276,7 @@
         <v>91</v>
       </c>
       <c r="C1125" s="33" t="s">
-        <v>3093</v>
+        <v>3077</v>
       </c>
       <c r="D1125" s="17" t="s">
         <v>21</v>
@@ -31288,7 +31314,7 @@
         <v>93</v>
       </c>
       <c r="C1127" s="33" t="s">
-        <v>3018</v>
+        <v>3002</v>
       </c>
       <c r="D1127" s="17" t="s">
         <v>21</v>
@@ -31301,7 +31327,7 @@
         <v>997</v>
       </c>
       <c r="H1127" s="30" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1128" spans="1:8" ht="13">
@@ -31312,7 +31338,7 @@
         <v>94</v>
       </c>
       <c r="C1128" s="33" t="s">
-        <v>3019</v>
+        <v>3003</v>
       </c>
       <c r="D1128" s="17" t="s">
         <v>21</v>
@@ -31325,7 +31351,7 @@
         <v>998</v>
       </c>
       <c r="H1128" s="30" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1129" spans="1:8" ht="13">
@@ -31468,7 +31494,7 @@
       </c>
       <c r="F1136" s="30"/>
       <c r="G1136" s="30" t="s">
-        <v>3105</v>
+        <v>3089</v>
       </c>
       <c r="H1136" s="30" t="s">
         <v>1006</v>
@@ -31618,7 +31644,9 @@
       <c r="E1144" s="30" t="s">
         <v>910</v>
       </c>
-      <c r="F1144" s="30"/>
+      <c r="F1144" s="30">
+        <v>2669</v>
+      </c>
       <c r="G1144" s="30" t="s">
         <v>1014</v>
       </c>
@@ -31840,7 +31868,7 @@
         <v>122</v>
       </c>
       <c r="C1156" s="33" t="s">
-        <v>3082</v>
+        <v>3066</v>
       </c>
       <c r="D1156" s="17" t="s">
         <v>1029</v>
@@ -31910,7 +31938,7 @@
         <v>4</v>
       </c>
       <c r="C1160" s="33" t="s">
-        <v>3062</v>
+        <v>3046</v>
       </c>
       <c r="D1160" s="17" t="s">
         <v>21</v>
@@ -31938,7 +31966,7 @@
         <v>21</v>
       </c>
       <c r="E1161" s="30" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="F1161" s="31">
         <v>2731</v>
@@ -32104,7 +32132,7 @@
         <v>13</v>
       </c>
       <c r="C1169" s="33" t="s">
-        <v>2967</v>
+        <v>2951</v>
       </c>
       <c r="D1169" s="17" t="s">
         <v>1050</v>
@@ -32122,7 +32150,7 @@
         <v>14</v>
       </c>
       <c r="C1170" s="33" t="s">
-        <v>3061</v>
+        <v>3045</v>
       </c>
       <c r="D1170" s="17" t="s">
         <v>1051</v>
@@ -32232,7 +32260,7 @@
         <v>20</v>
       </c>
       <c r="C1176" s="33" t="s">
-        <v>2989</v>
+        <v>2973</v>
       </c>
       <c r="D1176" s="17" t="s">
         <v>21</v>
@@ -32309,7 +32337,7 @@
         <v>1063</v>
       </c>
       <c r="H1179" s="30" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1180" spans="1:8" ht="13">
@@ -32806,7 +32834,7 @@
       </c>
       <c r="F1206" s="30"/>
       <c r="G1206" s="30" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="H1206" s="30"/>
     </row>
@@ -32868,7 +32896,7 @@
         <v>7</v>
       </c>
       <c r="C1210" s="33" t="s">
-        <v>2955</v>
+        <v>2939</v>
       </c>
       <c r="D1210" s="17" t="s">
         <v>1100</v>
@@ -32886,10 +32914,10 @@
         <v>8</v>
       </c>
       <c r="C1211" s="33" t="s">
-        <v>2955</v>
+        <v>2939</v>
       </c>
       <c r="D1211" s="10" t="s">
-        <v>2956</v>
+        <v>2940</v>
       </c>
       <c r="E1211" s="30"/>
       <c r="F1211" s="30"/>
@@ -32912,7 +32940,7 @@
       </c>
       <c r="F1212" s="30"/>
       <c r="G1212" s="30" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="H1212" s="30"/>
     </row>
@@ -32940,7 +32968,7 @@
         <v>11</v>
       </c>
       <c r="C1214" s="33" t="s">
-        <v>2955</v>
+        <v>2939</v>
       </c>
       <c r="D1214" s="17" t="s">
         <v>1100</v>
@@ -33002,7 +33030,7 @@
       </c>
       <c r="F1217" s="30"/>
       <c r="G1217" s="30" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="H1217" s="30"/>
     </row>
@@ -33022,7 +33050,7 @@
       </c>
       <c r="F1218" s="30"/>
       <c r="G1218" s="30" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="H1218" s="30"/>
     </row>
@@ -33066,7 +33094,7 @@
         <v>18</v>
       </c>
       <c r="C1221" s="33" t="s">
-        <v>3135</v>
+        <v>3119</v>
       </c>
       <c r="D1221" s="17" t="s">
         <v>1107</v>
@@ -33108,7 +33136,7 @@
       </c>
       <c r="F1223" s="30"/>
       <c r="G1223" s="30" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="H1223" s="30"/>
     </row>
@@ -33128,7 +33156,7 @@
       </c>
       <c r="F1224" s="30"/>
       <c r="G1224" s="30" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="H1224" s="30"/>
     </row>
@@ -33150,7 +33178,7 @@
       </c>
       <c r="F1225" s="30"/>
       <c r="G1225" s="30" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="H1225" s="30"/>
     </row>
@@ -33222,7 +33250,7 @@
       </c>
       <c r="F1229" s="30"/>
       <c r="G1229" s="30" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="H1229" s="30"/>
     </row>
@@ -33234,7 +33262,7 @@
         <v>27</v>
       </c>
       <c r="C1230" s="33" t="s">
-        <v>3065</v>
+        <v>3049</v>
       </c>
       <c r="D1230" s="17" t="s">
         <v>21</v>
@@ -33244,7 +33272,7 @@
       </c>
       <c r="F1230" s="30"/>
       <c r="G1230" s="30" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="H1230" s="30"/>
     </row>
@@ -33292,7 +33320,7 @@
         <v>30</v>
       </c>
       <c r="C1233" s="33" t="s">
-        <v>3123</v>
+        <v>3107</v>
       </c>
       <c r="D1233" s="17" t="s">
         <v>21</v>
@@ -33302,7 +33330,7 @@
       </c>
       <c r="F1233" s="30"/>
       <c r="G1233" s="30" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="H1233" s="30"/>
     </row>
@@ -33322,7 +33350,7 @@
       </c>
       <c r="F1234" s="30"/>
       <c r="G1234" s="30" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="H1234" s="30"/>
     </row>
@@ -33342,7 +33370,7 @@
       </c>
       <c r="F1235" s="30"/>
       <c r="G1235" s="30" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="H1235" s="30"/>
     </row>
@@ -33378,7 +33406,7 @@
       </c>
       <c r="F1237" s="30"/>
       <c r="G1237" s="30" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="H1237" s="30"/>
     </row>
@@ -33414,7 +33442,7 @@
       </c>
       <c r="F1239" s="30"/>
       <c r="G1239" s="30" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="H1239" s="30"/>
     </row>
@@ -33480,14 +33508,14 @@
         <v>21</v>
       </c>
       <c r="E1243" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1243" s="30"/>
       <c r="G1243" s="30" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="H1243" s="30" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1244" spans="1:8" ht="13">
@@ -33506,7 +33534,7 @@
       </c>
       <c r="F1244" s="30"/>
       <c r="G1244" s="30" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="H1244" s="30"/>
     </row>
@@ -33542,7 +33570,7 @@
       </c>
       <c r="F1246" s="30"/>
       <c r="G1246" s="30" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="H1246" s="30"/>
     </row>
@@ -33562,7 +33590,7 @@
       </c>
       <c r="F1247" s="30"/>
       <c r="G1247" s="30" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="H1247" s="30"/>
     </row>
@@ -33582,7 +33610,7 @@
       </c>
       <c r="F1248" s="30"/>
       <c r="G1248" s="30" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="H1248" s="30"/>
     </row>
@@ -33634,7 +33662,7 @@
       </c>
       <c r="F1251" s="30"/>
       <c r="G1251" s="30" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="H1251" s="30"/>
     </row>
@@ -33662,17 +33690,17 @@
         <v>50</v>
       </c>
       <c r="C1253" s="33" t="s">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="D1253" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E1253" s="30" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="F1253" s="30"/>
       <c r="G1253" s="30" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="H1253" s="30"/>
     </row>
@@ -33726,7 +33754,7 @@
       </c>
       <c r="F1256" s="30"/>
       <c r="G1256" s="30" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="H1256" s="30"/>
     </row>
@@ -33812,7 +33840,7 @@
       </c>
       <c r="F1261" s="30"/>
       <c r="G1261" s="30" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="H1261" s="30"/>
     </row>
@@ -33832,7 +33860,7 @@
       </c>
       <c r="F1262" s="30"/>
       <c r="G1262" s="30" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="H1262" s="30"/>
     </row>
@@ -33870,10 +33898,10 @@
       </c>
       <c r="F1264" s="30"/>
       <c r="G1264" s="30" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="H1264" s="30" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1265" spans="1:8" ht="13">
@@ -33894,7 +33922,7 @@
       </c>
       <c r="F1265" s="30"/>
       <c r="G1265" s="30" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="H1265" s="30"/>
     </row>
@@ -33916,7 +33944,7 @@
       </c>
       <c r="F1266" s="30"/>
       <c r="G1266" s="30" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="H1266" s="30"/>
     </row>
@@ -33936,7 +33964,7 @@
       </c>
       <c r="F1267" s="30"/>
       <c r="G1267" s="30" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="H1267" s="30"/>
     </row>
@@ -33956,7 +33984,7 @@
       </c>
       <c r="F1268" s="30"/>
       <c r="G1268" s="30" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="H1268" s="30"/>
     </row>
@@ -34008,7 +34036,7 @@
       </c>
       <c r="F1271" s="30"/>
       <c r="G1271" s="30" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="H1271" s="30"/>
     </row>
@@ -34140,7 +34168,7 @@
       </c>
       <c r="F1279" s="30"/>
       <c r="G1279" s="30" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="H1279" s="30"/>
     </row>
@@ -34162,7 +34190,7 @@
       </c>
       <c r="F1280" s="30"/>
       <c r="G1280" s="30" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="H1280" s="30"/>
     </row>
@@ -34182,7 +34210,7 @@
       </c>
       <c r="F1281" s="30"/>
       <c r="G1281" s="30" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="H1281" s="30"/>
     </row>
@@ -34238,7 +34266,7 @@
       </c>
       <c r="F1284" s="30"/>
       <c r="G1284" s="30" t="s">
-        <v>2990</v>
+        <v>2974</v>
       </c>
       <c r="H1284" s="30"/>
     </row>
@@ -34278,7 +34306,7 @@
       </c>
       <c r="F1286" s="30"/>
       <c r="G1286" s="30" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="H1286" s="30"/>
     </row>
@@ -34300,7 +34328,7 @@
       </c>
       <c r="F1287" s="30"/>
       <c r="G1287" s="30" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="H1287" s="30"/>
     </row>
@@ -34320,7 +34348,7 @@
       </c>
       <c r="F1288" s="30"/>
       <c r="G1288" s="30" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="H1288" s="30"/>
     </row>
@@ -34360,7 +34388,7 @@
       </c>
       <c r="F1290" s="30"/>
       <c r="G1290" s="30" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="H1290" s="30"/>
     </row>
@@ -34382,7 +34410,7 @@
       </c>
       <c r="F1291" s="30"/>
       <c r="G1291" s="30" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
       <c r="H1291" s="30"/>
     </row>
@@ -34458,7 +34486,7 @@
         <v>93</v>
       </c>
       <c r="C1296" s="33" t="s">
-        <v>3005</v>
+        <v>2989</v>
       </c>
       <c r="D1296" s="17" t="s">
         <v>1152</v>
@@ -34476,7 +34504,7 @@
         <v>94</v>
       </c>
       <c r="C1297" s="33" t="s">
-        <v>3005</v>
+        <v>2989</v>
       </c>
       <c r="D1297" s="17" t="s">
         <v>1153</v>
@@ -34493,7 +34521,9 @@
       <c r="B1298" s="18">
         <v>95</v>
       </c>
-      <c r="C1298" s="19"/>
+      <c r="C1298" s="33" t="s">
+        <v>3161</v>
+      </c>
       <c r="D1298" s="17" t="s">
         <v>1154</v>
       </c>
@@ -34518,7 +34548,7 @@
       </c>
       <c r="F1299" s="30"/>
       <c r="G1299" s="30" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="H1299" s="30"/>
     </row>
@@ -34586,7 +34616,7 @@
       </c>
       <c r="F1303" s="30"/>
       <c r="G1303" s="30" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
       <c r="H1303" s="30"/>
     </row>
@@ -34606,7 +34636,7 @@
       </c>
       <c r="F1304" s="30"/>
       <c r="G1304" s="30" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
       <c r="H1304" s="30"/>
     </row>
@@ -34638,14 +34668,14 @@
         <v>21</v>
       </c>
       <c r="E1306" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1306" s="30"/>
       <c r="G1306" s="30" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="H1306" s="30" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1307" spans="1:8" ht="13">
@@ -34662,7 +34692,7 @@
         <v>1159</v>
       </c>
       <c r="E1307" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1307" s="30"/>
       <c r="G1307" s="30"/>
@@ -34698,14 +34728,14 @@
         <v>21</v>
       </c>
       <c r="E1309" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1309" s="30"/>
       <c r="G1309" s="30" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="H1309" s="30" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1310" spans="1:8" ht="13">
@@ -34754,14 +34784,14 @@
         <v>21</v>
       </c>
       <c r="E1312" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1312" s="30"/>
       <c r="G1312" s="30" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="H1312" s="30" t="s">
-        <v>2919</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1313" spans="1:8" ht="13">
@@ -34812,10 +34842,10 @@
       </c>
       <c r="F1315" s="30"/>
       <c r="G1315" s="30" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="H1315" s="30" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1316" spans="1:8" ht="13">
@@ -34826,7 +34856,7 @@
         <v>113</v>
       </c>
       <c r="C1316" s="33" t="s">
-        <v>3016</v>
+        <v>3000</v>
       </c>
       <c r="D1316" s="17" t="s">
         <v>1166</v>
@@ -34844,7 +34874,7 @@
         <v>114</v>
       </c>
       <c r="C1317" s="33" t="s">
-        <v>3016</v>
+        <v>3000</v>
       </c>
       <c r="D1317" s="17" t="s">
         <v>1167</v>
@@ -34866,16 +34896,16 @@
         <v>21</v>
       </c>
       <c r="E1318" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1318" s="30" t="s">
-        <v>3150</v>
+        <v>3134</v>
       </c>
       <c r="G1318" s="30" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="H1318" s="30" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1319" spans="1:8" ht="13">
@@ -34894,7 +34924,7 @@
       </c>
       <c r="F1319" s="30"/>
       <c r="G1319" s="30" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="H1319" s="30"/>
     </row>
@@ -34916,7 +34946,7 @@
       </c>
       <c r="F1320" s="30"/>
       <c r="G1320" s="30" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="H1320" s="30"/>
     </row>
@@ -35002,7 +35032,7 @@
       </c>
       <c r="F1325" s="30"/>
       <c r="G1325" s="30" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="H1325" s="30"/>
     </row>
@@ -35037,13 +35067,13 @@
         <v>1190</v>
       </c>
       <c r="F1327" s="30" t="s">
-        <v>3066</v>
+        <v>3050</v>
       </c>
       <c r="G1327" s="30" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="H1327" s="30" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1328" spans="1:8" ht="13">
@@ -35070,7 +35100,7 @@
         <v>12</v>
       </c>
       <c r="C1329" s="33" t="s">
-        <v>3070</v>
+        <v>3054</v>
       </c>
       <c r="D1329" s="17" t="s">
         <v>1175</v>
@@ -35128,10 +35158,10 @@
       </c>
       <c r="F1332" s="30"/>
       <c r="G1332" s="30" t="s">
-        <v>2499</v>
+        <v>3158</v>
       </c>
       <c r="H1332" s="30" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1333" spans="1:8" ht="13">
@@ -35142,7 +35172,7 @@
         <v>16</v>
       </c>
       <c r="C1333" s="33" t="s">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="D1333" s="17" t="s">
         <v>1178</v>
@@ -35219,7 +35249,7 @@
       <c r="F1337" s="30"/>
       <c r="G1337" s="30"/>
       <c r="H1337" s="30" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1338" spans="1:8" ht="13">
@@ -35231,7 +35261,7 @@
       </c>
       <c r="C1338" s="33"/>
       <c r="D1338" s="10" t="s">
-        <v>3078</v>
+        <v>3062</v>
       </c>
       <c r="E1338" s="30"/>
       <c r="F1338" s="30"/>
@@ -35246,10 +35276,10 @@
         <v>22</v>
       </c>
       <c r="C1339" s="33" t="s">
-        <v>3067</v>
+        <v>3051</v>
       </c>
       <c r="D1339" s="10" t="s">
-        <v>3100</v>
+        <v>3084</v>
       </c>
       <c r="E1339" s="30"/>
       <c r="F1339" s="30"/>
@@ -35264,10 +35294,10 @@
         <v>23</v>
       </c>
       <c r="C1340" s="33" t="s">
-        <v>3101</v>
+        <v>3085</v>
       </c>
       <c r="D1340" s="10" t="s">
-        <v>3112</v>
+        <v>3096</v>
       </c>
       <c r="E1340" s="30"/>
       <c r="F1340" s="30"/>
@@ -35282,7 +35312,7 @@
         <v>24</v>
       </c>
       <c r="C1341" s="33" t="s">
-        <v>2974</v>
+        <v>2958</v>
       </c>
       <c r="D1341" s="17" t="s">
         <v>21</v>
@@ -35292,10 +35322,10 @@
       </c>
       <c r="F1341" s="30"/>
       <c r="G1341" s="30" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="H1341" s="30" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1342" spans="1:8" ht="13">
@@ -35306,7 +35336,7 @@
         <v>25</v>
       </c>
       <c r="C1342" s="33" t="s">
-        <v>2973</v>
+        <v>2957</v>
       </c>
       <c r="D1342" s="17" t="s">
         <v>1183</v>
@@ -35382,10 +35412,10 @@
       </c>
       <c r="F1346" s="30"/>
       <c r="G1346" s="30" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="H1346" s="30" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1347" spans="1:8" ht="13">
@@ -35397,7 +35427,7 @@
       </c>
       <c r="C1347" s="19"/>
       <c r="D1347" s="10" t="s">
-        <v>3080</v>
+        <v>3064</v>
       </c>
       <c r="E1347" s="30" t="s">
         <v>1495</v>
@@ -35405,7 +35435,7 @@
       <c r="F1347" s="30"/>
       <c r="G1347" s="30"/>
       <c r="H1347" s="30" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1348" spans="1:8" ht="13">
@@ -35416,10 +35446,10 @@
         <v>31</v>
       </c>
       <c r="C1348" s="33" t="s">
-        <v>3081</v>
+        <v>3065</v>
       </c>
       <c r="D1348" s="10" t="s">
-        <v>3079</v>
+        <v>3063</v>
       </c>
       <c r="E1348" s="30" t="s">
         <v>1495</v>
@@ -35427,7 +35457,7 @@
       <c r="F1348" s="30"/>
       <c r="G1348" s="30"/>
       <c r="H1348" s="30" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1349" spans="1:8" ht="13">
@@ -35439,7 +35469,7 @@
       </c>
       <c r="C1349" s="19"/>
       <c r="D1349" s="10" t="s">
-        <v>3118</v>
+        <v>3102</v>
       </c>
       <c r="E1349" s="30" t="s">
         <v>1495</v>
@@ -35447,7 +35477,7 @@
       <c r="F1349" s="30"/>
       <c r="G1349" s="30"/>
       <c r="H1349" s="30" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1350" spans="1:8" ht="13">
@@ -35520,10 +35550,10 @@
       </c>
       <c r="F1353" s="30"/>
       <c r="G1353" s="30" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
       <c r="H1353" s="30" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1354" spans="1:8" ht="13">
@@ -35561,7 +35591,7 @@
         <v>1191</v>
       </c>
       <c r="H1355" s="30" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1356" spans="1:8" ht="13">
@@ -35583,7 +35613,7 @@
         <v>1192</v>
       </c>
       <c r="H1356" s="30" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1357" spans="1:8" ht="13">
@@ -35630,7 +35660,7 @@
         <v>42</v>
       </c>
       <c r="C1359" s="36" t="s">
-        <v>3045</v>
+        <v>3029</v>
       </c>
       <c r="D1359" s="17" t="s">
         <v>21</v>
@@ -35643,7 +35673,7 @@
         <v>1196</v>
       </c>
       <c r="H1359" s="30" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1360" spans="1:8" ht="13">
@@ -35996,7 +36026,7 @@
       </c>
       <c r="F1380" s="30"/>
       <c r="G1380" s="30" t="s">
-        <v>2947</v>
+        <v>2931</v>
       </c>
       <c r="H1380" s="30" t="s">
         <v>1217</v>
@@ -36027,7 +36057,7 @@
       </c>
       <c r="C1382" s="19"/>
       <c r="D1382" s="10" t="s">
-        <v>2936</v>
+        <v>2920</v>
       </c>
       <c r="E1382" s="30" t="s">
         <v>1219</v>
@@ -36102,10 +36132,10 @@
         <v>69</v>
       </c>
       <c r="C1386" s="33" t="s">
-        <v>3125</v>
+        <v>3109</v>
       </c>
       <c r="D1386" s="10" t="s">
-        <v>3124</v>
+        <v>3108</v>
       </c>
       <c r="E1386" s="30"/>
       <c r="F1386" s="30"/>
@@ -36226,7 +36256,7 @@
         <v>76</v>
       </c>
       <c r="C1393" s="33" t="s">
-        <v>3132</v>
+        <v>3116</v>
       </c>
       <c r="D1393" s="17" t="s">
         <v>1231</v>
@@ -36244,7 +36274,7 @@
         <v>77</v>
       </c>
       <c r="C1394" s="33" t="s">
-        <v>3132</v>
+        <v>3116</v>
       </c>
       <c r="D1394" s="17" t="s">
         <v>1232</v>
@@ -36351,7 +36381,7 @@
         <v>1237</v>
       </c>
       <c r="H1399" s="30" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1400" spans="1:8" ht="13">
@@ -36500,7 +36530,7 @@
       </c>
       <c r="F1407" s="30"/>
       <c r="G1407" s="30" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="H1407" s="30"/>
     </row>
@@ -36530,7 +36560,7 @@
         <v>92</v>
       </c>
       <c r="C1409" s="33" t="s">
-        <v>3111</v>
+        <v>3095</v>
       </c>
       <c r="D1409" s="17" t="s">
         <v>21</v>
@@ -36556,9 +36586,11 @@
         <v>1248</v>
       </c>
       <c r="E1410" s="30" t="s">
-        <v>2514</v>
-      </c>
-      <c r="F1410" s="30"/>
+        <v>2508</v>
+      </c>
+      <c r="F1410" s="30" t="s">
+        <v>3167</v>
+      </c>
       <c r="G1410" s="30"/>
       <c r="H1410" s="30"/>
     </row>
@@ -36570,7 +36602,7 @@
         <v>94</v>
       </c>
       <c r="C1411" s="33" t="s">
-        <v>3088</v>
+        <v>3072</v>
       </c>
       <c r="D1411" s="17" t="s">
         <v>1249</v>
@@ -36588,7 +36620,7 @@
         <v>95</v>
       </c>
       <c r="C1412" s="33" t="s">
-        <v>3088</v>
+        <v>3072</v>
       </c>
       <c r="D1412" s="17" t="s">
         <v>1250</v>
@@ -36606,13 +36638,13 @@
         <v>96</v>
       </c>
       <c r="C1413" s="33" t="s">
-        <v>3088</v>
+        <v>3072</v>
       </c>
       <c r="D1413" s="17" t="s">
         <v>1251</v>
       </c>
       <c r="E1413" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1413" s="30"/>
       <c r="G1413" s="30"/>
@@ -36626,7 +36658,7 @@
         <v>97</v>
       </c>
       <c r="C1414" s="33" t="s">
-        <v>3088</v>
+        <v>3072</v>
       </c>
       <c r="D1414" s="17" t="s">
         <v>1252</v>
@@ -36650,7 +36682,7 @@
         <v>1253</v>
       </c>
       <c r="E1415" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1415" s="30"/>
       <c r="G1415" s="30"/>
@@ -36712,14 +36744,14 @@
         <v>1257</v>
       </c>
       <c r="E1418" s="31" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="F1418" s="30"/>
       <c r="G1418" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="H1418" s="31" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1419" spans="1:8" ht="13">
@@ -36860,7 +36892,7 @@
         <v>109</v>
       </c>
       <c r="C1426" s="33" t="s">
-        <v>3025</v>
+        <v>3009</v>
       </c>
       <c r="D1426" s="17" t="s">
         <v>1268</v>
@@ -37220,14 +37252,14 @@
         <v>1290</v>
       </c>
       <c r="E1446" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1446" s="31">
         <v>3347</v>
       </c>
       <c r="G1446" s="30"/>
       <c r="H1446" s="30" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1447" spans="1:8" ht="13">
@@ -37304,14 +37336,14 @@
         <v>1294</v>
       </c>
       <c r="E1450" s="30" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="F1450" s="31">
         <v>3334</v>
       </c>
       <c r="G1450" s="30"/>
       <c r="H1450" s="30" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1451" spans="1:8" ht="13">
@@ -37476,10 +37508,10 @@
       </c>
       <c r="F1459" s="30"/>
       <c r="G1459" s="30" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
       <c r="H1459" s="30" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1460" spans="1:8" ht="13">
@@ -37562,7 +37594,7 @@
         <v>147</v>
       </c>
       <c r="C1464" s="33" t="s">
-        <v>3122</v>
+        <v>3106</v>
       </c>
       <c r="D1464" s="17" t="s">
         <v>21</v>
@@ -37658,7 +37690,7 @@
         <v>1311</v>
       </c>
       <c r="E1469" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1469" s="30" t="s">
         <v>243</v>
@@ -37778,7 +37810,7 @@
       </c>
       <c r="F1475" s="30"/>
       <c r="G1475" s="30" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
       <c r="H1475" s="30"/>
     </row>
@@ -37841,7 +37873,9 @@
       <c r="B1479" s="18">
         <v>162</v>
       </c>
-      <c r="C1479" s="19"/>
+      <c r="C1479" s="33" t="s">
+        <v>3163</v>
+      </c>
       <c r="D1479" s="17" t="s">
         <v>1320</v>
       </c>
@@ -37858,7 +37892,7 @@
         <v>163</v>
       </c>
       <c r="C1480" s="33" t="s">
-        <v>2948</v>
+        <v>2932</v>
       </c>
       <c r="D1480" s="17" t="s">
         <v>1321</v>
@@ -37938,7 +37972,7 @@
         <v>1325</v>
       </c>
       <c r="E1484" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1484" s="30" t="s">
         <v>243</v>
@@ -38216,10 +38250,10 @@
         <v>1341</v>
       </c>
       <c r="E1500" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1500" s="30" t="s">
-        <v>3148</v>
+        <v>3132</v>
       </c>
       <c r="G1500" s="30"/>
       <c r="H1500" s="30"/>
@@ -38240,7 +38274,7 @@
       </c>
       <c r="F1501" s="30"/>
       <c r="G1501" s="30" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="H1501" s="30"/>
     </row>
@@ -38285,7 +38319,7 @@
       </c>
       <c r="C1504" s="19"/>
       <c r="D1504" s="10" t="s">
-        <v>3090</v>
+        <v>3074</v>
       </c>
       <c r="E1504" s="30"/>
       <c r="F1504" s="30"/>
@@ -38320,11 +38354,11 @@
         <v>21</v>
       </c>
       <c r="E1506" s="30" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="F1506" s="30"/>
       <c r="G1506" s="30" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="H1506" s="30"/>
     </row>
@@ -38342,7 +38376,7 @@
         <v>1345</v>
       </c>
       <c r="E1507" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F1507" s="30" t="s">
         <v>243</v>
@@ -38382,7 +38416,7 @@
       </c>
       <c r="F1509" s="30"/>
       <c r="G1509" s="30" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="H1509" s="30"/>
     </row>
@@ -38402,7 +38436,7 @@
       </c>
       <c r="F1510" s="30"/>
       <c r="G1510" s="30" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="H1510" s="30"/>
     </row>
@@ -38422,7 +38456,7 @@
       </c>
       <c r="F1511" s="30"/>
       <c r="G1511" s="30" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="H1511" s="30"/>
     </row>
@@ -38442,7 +38476,7 @@
       </c>
       <c r="F1512" s="30"/>
       <c r="G1512" s="30" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="H1512" s="30"/>
     </row>
@@ -38529,7 +38563,7 @@
         <v>1351</v>
       </c>
       <c r="H1517" s="30" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1518" spans="1:8" ht="13">
@@ -38806,14 +38840,14 @@
         <v>21</v>
       </c>
       <c r="E1532" s="30" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
       <c r="F1532" s="30"/>
       <c r="G1532" s="30" t="s">
         <v>1369</v>
       </c>
       <c r="H1532" s="30" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1533" spans="1:8" ht="13">
@@ -38986,7 +39020,7 @@
       </c>
       <c r="F1541" s="30"/>
       <c r="G1541" s="30" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="H1541" s="30"/>
     </row>
@@ -39006,7 +39040,7 @@
       </c>
       <c r="F1542" s="30"/>
       <c r="G1542" s="30" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="H1542" s="30"/>
     </row>
@@ -39046,7 +39080,7 @@
       </c>
       <c r="F1544" s="30"/>
       <c r="G1544" s="30" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="H1544" s="30"/>
     </row>
@@ -39066,7 +39100,7 @@
       </c>
       <c r="F1545" s="30"/>
       <c r="G1545" s="30" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="H1545" s="30"/>
     </row>
@@ -39088,7 +39122,7 @@
       </c>
       <c r="F1546" s="30"/>
       <c r="G1546" s="30" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
       <c r="H1546" s="30"/>
     </row>
@@ -39110,7 +39144,7 @@
       </c>
       <c r="F1547" s="30"/>
       <c r="G1547" s="30" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="H1547" s="30"/>
     </row>
@@ -39150,10 +39184,10 @@
       </c>
       <c r="F1549" s="30"/>
       <c r="G1549" s="30" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="H1549" s="30" t="s">
-        <v>2540</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1550" spans="1:8" ht="13">
@@ -39172,7 +39206,7 @@
       </c>
       <c r="F1550" s="30"/>
       <c r="G1550" s="30" t="s">
-        <v>2541</v>
+        <v>2535</v>
       </c>
       <c r="H1550" s="30"/>
     </row>
@@ -39212,7 +39246,7 @@
       </c>
       <c r="F1552" s="30"/>
       <c r="G1552" s="30" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
       <c r="H1552" s="30"/>
     </row>
@@ -39248,7 +39282,7 @@
       </c>
       <c r="F1554" s="30"/>
       <c r="G1554" s="30" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="H1554" s="30"/>
     </row>
@@ -39280,10 +39314,10 @@
         <v>1383</v>
       </c>
       <c r="E1556" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1556" s="30" t="s">
-        <v>3152</v>
+        <v>3136</v>
       </c>
       <c r="G1556" s="30"/>
       <c r="H1556" s="30"/>
@@ -39304,7 +39338,7 @@
       </c>
       <c r="F1557" s="30"/>
       <c r="G1557" s="30" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="H1557" s="30"/>
     </row>
@@ -39360,7 +39394,7 @@
       </c>
       <c r="F1560" s="30"/>
       <c r="G1560" s="30" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="H1560" s="30"/>
     </row>
@@ -39372,7 +39406,7 @@
         <v>47</v>
       </c>
       <c r="C1561" s="33" t="s">
-        <v>2991</v>
+        <v>2975</v>
       </c>
       <c r="D1561" s="17" t="s">
         <v>1386</v>
@@ -39398,7 +39432,7 @@
       </c>
       <c r="F1562" s="30"/>
       <c r="G1562" s="30" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="H1562" s="30"/>
     </row>
@@ -39418,7 +39452,7 @@
       </c>
       <c r="F1563" s="30"/>
       <c r="G1563" s="30" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="H1563" s="30"/>
     </row>
@@ -39454,7 +39488,7 @@
       </c>
       <c r="F1565" s="30"/>
       <c r="G1565" s="30" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="H1565" s="30"/>
     </row>
@@ -39526,7 +39560,7 @@
       </c>
       <c r="F1569" s="30"/>
       <c r="G1569" s="30" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="H1569" s="30"/>
     </row>
@@ -39590,7 +39624,7 @@
         <v>59</v>
       </c>
       <c r="C1573" s="33" t="s">
-        <v>2957</v>
+        <v>2941</v>
       </c>
       <c r="D1573" s="17" t="s">
         <v>1395</v>
@@ -39632,7 +39666,7 @@
       </c>
       <c r="F1575" s="30"/>
       <c r="G1575" s="30" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="H1575" s="30"/>
     </row>
@@ -39668,10 +39702,10 @@
       </c>
       <c r="F1577" s="30"/>
       <c r="G1577" s="30" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
       <c r="H1577" s="30" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1578" spans="1:8" ht="13">
@@ -39707,7 +39741,7 @@
       <c r="F1579" s="30"/>
       <c r="G1579" s="30"/>
       <c r="H1579" s="30" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1580" spans="1:8" ht="13">
@@ -39727,7 +39761,7 @@
         <v>1033</v>
       </c>
       <c r="F1580" s="30" t="s">
-        <v>3156</v>
+        <v>3140</v>
       </c>
       <c r="G1580" s="30"/>
       <c r="H1580" s="30"/>
@@ -39836,7 +39870,7 @@
       </c>
       <c r="F1586" s="30"/>
       <c r="G1586" s="30" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="H1586" s="30"/>
     </row>
@@ -39872,10 +39906,10 @@
       </c>
       <c r="F1588" s="30"/>
       <c r="G1588" s="30" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="H1588" s="30" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1589" spans="1:8" ht="13">
@@ -39898,7 +39932,7 @@
         <v>923</v>
       </c>
       <c r="G1589" s="30" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="H1589" s="30"/>
     </row>
@@ -39918,10 +39952,10 @@
       </c>
       <c r="F1590" s="30"/>
       <c r="G1590" s="30" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="H1590" s="30" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1591" spans="1:8" ht="13">
@@ -39940,7 +39974,7 @@
       </c>
       <c r="F1591" s="30"/>
       <c r="G1591" s="30" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="H1591" s="30"/>
     </row>
@@ -39983,7 +40017,7 @@
       <c r="F1593" s="30"/>
       <c r="G1593" s="30"/>
       <c r="H1593" s="30" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1594" spans="1:8" ht="13">
@@ -40002,7 +40036,7 @@
       </c>
       <c r="F1594" s="30"/>
       <c r="G1594" s="30" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="H1594" s="30"/>
     </row>
@@ -40040,7 +40074,7 @@
       </c>
       <c r="F1596" s="30"/>
       <c r="G1596" s="30" t="s">
-        <v>2563</v>
+        <v>3152</v>
       </c>
       <c r="H1596" s="30"/>
     </row>
@@ -40060,7 +40094,7 @@
       </c>
       <c r="F1597" s="30"/>
       <c r="G1597" s="30" t="s">
-        <v>2564</v>
+        <v>2557</v>
       </c>
       <c r="H1597" s="30"/>
     </row>
@@ -40080,10 +40114,10 @@
       </c>
       <c r="F1598" s="30"/>
       <c r="G1598" s="30" t="s">
-        <v>2565</v>
+        <v>2558</v>
       </c>
       <c r="H1598" s="30" t="s">
-        <v>2566</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1599" spans="1:8" ht="13">
@@ -40097,8 +40131,12 @@
       <c r="D1599" s="17" t="s">
         <v>1412</v>
       </c>
-      <c r="E1599" s="30"/>
-      <c r="F1599" s="30"/>
+      <c r="E1599" s="30" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1599" s="30" t="s">
+        <v>3164</v>
+      </c>
       <c r="G1599" s="30"/>
       <c r="H1599" s="30"/>
     </row>
@@ -40181,7 +40219,7 @@
         <v>1414</v>
       </c>
       <c r="F1603" s="30" t="s">
-        <v>3136</v>
+        <v>3120</v>
       </c>
       <c r="G1603" s="30" t="s">
         <v>1420</v>
@@ -40296,7 +40334,7 @@
         <v>11</v>
       </c>
       <c r="C1609" s="33" t="s">
-        <v>2970</v>
+        <v>2954</v>
       </c>
       <c r="D1609" s="17" t="s">
         <v>1426</v>
@@ -40378,7 +40416,7 @@
       </c>
       <c r="F1613" s="30"/>
       <c r="G1613" s="34" t="s">
-        <v>3015</v>
+        <v>2999</v>
       </c>
       <c r="H1613" s="30" t="s">
         <v>1430</v>
@@ -40432,10 +40470,10 @@
       </c>
       <c r="F1616" s="30"/>
       <c r="G1616" s="30" t="s">
-        <v>2567</v>
+        <v>2560</v>
       </c>
       <c r="H1616" s="30" t="s">
-        <v>2568</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1617" spans="1:8" ht="13">
@@ -40454,10 +40492,10 @@
       </c>
       <c r="F1617" s="30"/>
       <c r="G1617" s="30" t="s">
-        <v>2569</v>
+        <v>2562</v>
       </c>
       <c r="H1617" s="30" t="s">
-        <v>2570</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1618" spans="1:8" ht="13">
@@ -40484,7 +40522,7 @@
         <v>21</v>
       </c>
       <c r="C1619" s="33" t="s">
-        <v>3032</v>
+        <v>3016</v>
       </c>
       <c r="D1619" s="17" t="s">
         <v>1435</v>
@@ -40843,7 +40881,7 @@
         <v>15</v>
       </c>
       <c r="D1639" s="10" t="s">
-        <v>2969</v>
+        <v>2953</v>
       </c>
       <c r="E1639" s="30" t="s">
         <v>1414</v>
@@ -41090,10 +41128,10 @@
         <v>55</v>
       </c>
       <c r="C1653" s="33" t="s">
-        <v>3046</v>
+        <v>3030</v>
       </c>
       <c r="D1653" s="10" t="s">
-        <v>3047</v>
+        <v>3031</v>
       </c>
       <c r="E1653" s="30"/>
       <c r="F1653" s="30"/>
@@ -41152,10 +41190,10 @@
         <v>1472</v>
       </c>
       <c r="E1656" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1656" s="30" t="s">
-        <v>3151</v>
+        <v>3135</v>
       </c>
       <c r="G1656" s="30"/>
       <c r="H1656" s="30"/>
@@ -41261,7 +41299,7 @@
         <v>1479</v>
       </c>
       <c r="H1661" s="30" t="s">
-        <v>2571</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1662" spans="1:8" ht="13">
@@ -41276,14 +41314,14 @@
         <v>21</v>
       </c>
       <c r="E1662" s="30" t="s">
-        <v>2572</v>
+        <v>2565</v>
       </c>
       <c r="F1662" s="30"/>
       <c r="G1662" s="30" t="s">
         <v>1480</v>
       </c>
       <c r="H1662" s="30" t="s">
-        <v>2573</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1663" spans="1:8" ht="13">
@@ -41484,14 +41522,14 @@
         <v>21</v>
       </c>
       <c r="E1674" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1674" s="30"/>
       <c r="G1674" s="30" t="s">
-        <v>2574</v>
+        <v>2567</v>
       </c>
       <c r="H1674" s="30" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1675" spans="1:8" ht="13">
@@ -41522,14 +41560,14 @@
         <v>21</v>
       </c>
       <c r="E1676" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1676" s="30"/>
       <c r="G1676" s="30" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="H1676" s="30" t="s">
-        <v>2577</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1677" spans="1:8" ht="13">
@@ -41560,14 +41598,14 @@
         <v>21</v>
       </c>
       <c r="E1678" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F1678" s="30"/>
       <c r="G1678" s="30" t="s">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="H1678" s="30" t="s">
-        <v>2579</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1679" spans="1:8" ht="13">
@@ -41582,10 +41620,10 @@
         <v>1493</v>
       </c>
       <c r="E1679" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1679" s="30" t="s">
-        <v>3131</v>
+        <v>3115</v>
       </c>
       <c r="G1679" s="30"/>
       <c r="H1679" s="30"/>
@@ -41646,10 +41684,10 @@
       </c>
       <c r="F1682" s="30"/>
       <c r="G1682" s="30" t="s">
-        <v>2580</v>
+        <v>2573</v>
       </c>
       <c r="H1682" s="30" t="s">
-        <v>2581</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1683" spans="1:8" ht="13">
@@ -41816,7 +41854,7 @@
         <v>94</v>
       </c>
       <c r="C1692" s="33" t="s">
-        <v>3044</v>
+        <v>3028</v>
       </c>
       <c r="D1692" s="17" t="s">
         <v>21</v>
@@ -42070,7 +42108,7 @@
       </c>
       <c r="F1705" s="30"/>
       <c r="G1705" s="30" t="s">
-        <v>2940</v>
+        <v>2924</v>
       </c>
       <c r="H1705" s="30" t="s">
         <v>1522</v>
@@ -42374,14 +42412,14 @@
         <v>1542</v>
       </c>
       <c r="E1721" s="30" t="s">
-        <v>2582</v>
+        <v>2575</v>
       </c>
       <c r="F1721" s="30"/>
       <c r="G1721" s="30" t="s">
-        <v>2583</v>
+        <v>2576</v>
       </c>
       <c r="H1721" s="30" t="s">
-        <v>2920</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1722" spans="1:8" ht="13">
@@ -42432,7 +42470,7 @@
       </c>
       <c r="F1724" s="30"/>
       <c r="G1724" s="30" t="s">
-        <v>2584</v>
+        <v>2577</v>
       </c>
       <c r="H1724" s="30"/>
     </row>
@@ -42452,7 +42490,7 @@
       </c>
       <c r="F1725" s="30"/>
       <c r="G1725" s="30" t="s">
-        <v>2585</v>
+        <v>2578</v>
       </c>
       <c r="H1725" s="30"/>
     </row>
@@ -42480,7 +42518,7 @@
         <v>6</v>
       </c>
       <c r="C1727" s="33" t="s">
-        <v>2945</v>
+        <v>2929</v>
       </c>
       <c r="D1727" s="17" t="s">
         <v>21</v>
@@ -42490,10 +42528,10 @@
       </c>
       <c r="F1727" s="30"/>
       <c r="G1727" s="30" t="s">
-        <v>2586</v>
+        <v>2579</v>
       </c>
       <c r="H1727" s="30" t="s">
-        <v>2587</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1728" spans="1:8" ht="13">
@@ -42512,10 +42550,10 @@
       </c>
       <c r="F1728" s="30"/>
       <c r="G1728" s="30" t="s">
-        <v>2588</v>
+        <v>2581</v>
       </c>
       <c r="H1728" s="30" t="s">
-        <v>2589</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1729" spans="1:8" ht="13">
@@ -42538,10 +42576,10 @@
         <v>4028</v>
       </c>
       <c r="G1729" s="30" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
       <c r="H1729" s="30" t="s">
-        <v>2591</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1730" spans="1:8" ht="13">
@@ -42592,7 +42630,7 @@
       </c>
       <c r="F1732" s="30"/>
       <c r="G1732" s="30" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="H1732" s="30"/>
     </row>
@@ -42612,10 +42650,10 @@
       </c>
       <c r="F1733" s="30"/>
       <c r="G1733" s="30" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="H1733" s="30" t="s">
-        <v>2594</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1734" spans="1:8" ht="13">
@@ -42630,10 +42668,10 @@
         <v>1549</v>
       </c>
       <c r="E1734" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1734" s="30" t="s">
-        <v>3160</v>
+        <v>3144</v>
       </c>
       <c r="G1734" s="30"/>
       <c r="H1734" s="30"/>
@@ -42670,11 +42708,11 @@
         <v>21</v>
       </c>
       <c r="E1736" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1736" s="30"/>
       <c r="G1736" s="30" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="H1736" s="30"/>
     </row>
@@ -42722,14 +42760,14 @@
         <v>21</v>
       </c>
       <c r="E1739" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1739" s="30"/>
       <c r="G1739" s="30" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
       <c r="H1739" s="30" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1740" spans="1:8" ht="13">
@@ -42762,11 +42800,11 @@
         <v>21</v>
       </c>
       <c r="E1741" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1741" s="30"/>
       <c r="G1741" s="30" t="s">
-        <v>2914</v>
+        <v>2898</v>
       </c>
       <c r="H1741" s="30"/>
     </row>
@@ -42782,11 +42820,11 @@
         <v>21</v>
       </c>
       <c r="E1742" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1742" s="30"/>
       <c r="G1742" s="30" t="s">
-        <v>2599</v>
+        <v>2592</v>
       </c>
       <c r="H1742" s="30"/>
     </row>
@@ -42802,14 +42840,14 @@
         <v>21</v>
       </c>
       <c r="E1743" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1743" s="30"/>
       <c r="G1743" s="30" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
       <c r="H1743" s="30" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1744" spans="1:8" ht="13">
@@ -42827,7 +42865,7 @@
       <c r="F1744" s="30"/>
       <c r="G1744" s="30"/>
       <c r="H1744" s="30" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1745" spans="1:8" ht="13">
@@ -42844,7 +42882,7 @@
         <v>1558</v>
       </c>
       <c r="E1745" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1745" s="30"/>
       <c r="G1745" s="30"/>
@@ -42865,7 +42903,7 @@
       <c r="F1746" s="30"/>
       <c r="G1746" s="30"/>
       <c r="H1746" s="30" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1747" spans="1:8" ht="13">
@@ -42928,11 +42966,11 @@
         <v>21</v>
       </c>
       <c r="E1750" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1750" s="30"/>
       <c r="G1750" s="30" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
       <c r="H1750" s="30"/>
     </row>
@@ -42948,11 +42986,11 @@
         <v>21</v>
       </c>
       <c r="E1751" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1751" s="30"/>
       <c r="G1751" s="30" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
       <c r="H1751" s="30"/>
     </row>
@@ -42968,11 +43006,11 @@
         <v>21</v>
       </c>
       <c r="E1752" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1752" s="30"/>
       <c r="G1752" s="30" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
       <c r="H1752" s="30"/>
     </row>
@@ -43006,7 +43044,7 @@
         <v>1564</v>
       </c>
       <c r="E1754" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1754" s="30"/>
       <c r="G1754" s="30"/>
@@ -43026,11 +43064,11 @@
         <v>21</v>
       </c>
       <c r="E1755" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1755" s="30"/>
       <c r="G1755" s="30" t="s">
-        <v>2607</v>
+        <v>2600</v>
       </c>
       <c r="H1755" s="30"/>
     </row>
@@ -43046,11 +43084,11 @@
         <v>21</v>
       </c>
       <c r="E1756" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1756" s="30"/>
       <c r="G1756" s="30" t="s">
-        <v>2608</v>
+        <v>2601</v>
       </c>
       <c r="H1756" s="30"/>
     </row>
@@ -43066,14 +43104,14 @@
         <v>21</v>
       </c>
       <c r="E1757" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1757" s="30"/>
       <c r="G1757" s="30" t="s">
-        <v>2609</v>
+        <v>2602</v>
       </c>
       <c r="H1757" s="30" t="s">
-        <v>2610</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1758" spans="1:8" ht="13">
@@ -43088,11 +43126,11 @@
         <v>21</v>
       </c>
       <c r="E1758" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1758" s="30"/>
       <c r="G1758" s="30" t="s">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="H1758" s="30"/>
     </row>
@@ -43108,11 +43146,11 @@
         <v>21</v>
       </c>
       <c r="E1759" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1759" s="30"/>
       <c r="G1759" s="30" t="s">
-        <v>2612</v>
+        <v>2605</v>
       </c>
       <c r="H1759" s="30"/>
     </row>
@@ -43176,11 +43214,11 @@
         <v>21</v>
       </c>
       <c r="E1763" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1763" s="30"/>
       <c r="G1763" s="30" t="s">
-        <v>2613</v>
+        <v>3156</v>
       </c>
       <c r="H1763" s="30"/>
     </row>
@@ -43196,11 +43234,11 @@
         <v>21</v>
       </c>
       <c r="E1764" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1764" s="30"/>
       <c r="G1764" s="30" t="s">
-        <v>2614</v>
+        <v>2606</v>
       </c>
       <c r="H1764" s="30"/>
     </row>
@@ -43216,11 +43254,11 @@
         <v>21</v>
       </c>
       <c r="E1765" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1765" s="30"/>
       <c r="G1765" s="30" t="s">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="H1765" s="30"/>
     </row>
@@ -43236,14 +43274,14 @@
         <v>21</v>
       </c>
       <c r="E1766" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1766" s="30"/>
       <c r="G1766" s="30" t="s">
-        <v>2616</v>
+        <v>2608</v>
       </c>
       <c r="H1766" s="30" t="s">
-        <v>2617</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1767" spans="1:8" ht="13">
@@ -43322,11 +43360,11 @@
         <v>21</v>
       </c>
       <c r="E1771" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1771" s="30"/>
       <c r="G1771" s="30" t="s">
-        <v>2618</v>
+        <v>2610</v>
       </c>
       <c r="H1771" s="30"/>
     </row>
@@ -43360,11 +43398,11 @@
         <v>1573</v>
       </c>
       <c r="E1773" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1773" s="30"/>
       <c r="G1773" s="30" t="s">
-        <v>2619</v>
+        <v>2611</v>
       </c>
       <c r="H1773" s="30"/>
     </row>
@@ -43414,11 +43452,11 @@
         <v>21</v>
       </c>
       <c r="E1776" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1776" s="30"/>
       <c r="G1776" s="30" t="s">
-        <v>2620</v>
+        <v>2612</v>
       </c>
       <c r="H1776" s="30"/>
     </row>
@@ -43436,7 +43474,7 @@
         <v>1576</v>
       </c>
       <c r="E1777" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1777" s="30"/>
       <c r="G1777" s="30"/>
@@ -43472,7 +43510,7 @@
       <c r="E1779" s="30"/>
       <c r="F1779" s="30"/>
       <c r="G1779" s="30" t="s">
-        <v>2621</v>
+        <v>2613</v>
       </c>
       <c r="H1779" s="30"/>
     </row>
@@ -43488,11 +43526,11 @@
         <v>21</v>
       </c>
       <c r="E1780" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1780" s="30"/>
       <c r="G1780" s="30" t="s">
-        <v>2622</v>
+        <v>2614</v>
       </c>
       <c r="H1780" s="30"/>
     </row>
@@ -43524,11 +43562,11 @@
         <v>21</v>
       </c>
       <c r="E1782" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1782" s="30"/>
       <c r="G1782" s="30" t="s">
-        <v>2623</v>
+        <v>2615</v>
       </c>
       <c r="H1782" s="30"/>
     </row>
@@ -43549,7 +43587,7 @@
       <c r="F1783" s="31"/>
       <c r="G1783" s="30"/>
       <c r="H1783" s="30" t="s">
-        <v>2624</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1784" spans="1:8" ht="13">
@@ -43564,11 +43602,11 @@
         <v>21</v>
       </c>
       <c r="E1784" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1784" s="30"/>
       <c r="G1784" s="30" t="s">
-        <v>2625</v>
+        <v>2617</v>
       </c>
       <c r="H1784" s="30"/>
     </row>
@@ -43648,11 +43686,11 @@
         <v>21</v>
       </c>
       <c r="E1789" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1789" s="30"/>
       <c r="G1789" s="35" t="s">
-        <v>3034</v>
+        <v>3018</v>
       </c>
       <c r="H1789" s="30"/>
     </row>
@@ -43671,7 +43709,7 @@
       <c r="F1790" s="30"/>
       <c r="G1790" s="30"/>
       <c r="H1790" s="30" t="s">
-        <v>2626</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1791" spans="1:8" ht="13">
@@ -43704,14 +43742,14 @@
         <v>1587</v>
       </c>
       <c r="E1792" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1792" s="30" t="s">
-        <v>3145</v>
+        <v>3129</v>
       </c>
       <c r="G1792" s="30"/>
       <c r="H1792" s="30" t="s">
-        <v>2627</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1793" spans="1:8" ht="13">
@@ -43758,14 +43796,14 @@
         <v>21</v>
       </c>
       <c r="E1795" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1795" s="30"/>
       <c r="G1795" s="30" t="s">
-        <v>2628</v>
+        <v>3154</v>
       </c>
       <c r="H1795" s="30" t="s">
-        <v>2629</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1796" spans="1:8" ht="13">
@@ -43828,11 +43866,11 @@
         <v>21</v>
       </c>
       <c r="E1799" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1799" s="30"/>
       <c r="G1799" s="30" t="s">
-        <v>2630</v>
+        <v>2621</v>
       </c>
       <c r="H1799" s="30"/>
     </row>
@@ -43864,11 +43902,11 @@
         <v>21</v>
       </c>
       <c r="E1801" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1801" s="30"/>
       <c r="G1801" s="30" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="H1801" s="30"/>
     </row>
@@ -43884,11 +43922,11 @@
         <v>21</v>
       </c>
       <c r="E1802" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1802" s="30"/>
       <c r="G1802" s="30" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
       <c r="H1802" s="30"/>
     </row>
@@ -43904,11 +43942,11 @@
         <v>21</v>
       </c>
       <c r="E1803" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1803" s="30"/>
       <c r="G1803" s="30" t="s">
-        <v>2633</v>
+        <v>2624</v>
       </c>
       <c r="H1803" s="30"/>
     </row>
@@ -43926,11 +43964,11 @@
         <v>21</v>
       </c>
       <c r="E1804" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1804" s="30"/>
       <c r="G1804" s="30" t="s">
-        <v>2634</v>
+        <v>2625</v>
       </c>
       <c r="H1804" s="30"/>
     </row>
@@ -43946,11 +43984,11 @@
         <v>21</v>
       </c>
       <c r="E1805" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1805" s="30"/>
       <c r="G1805" s="30" t="s">
-        <v>2635</v>
+        <v>2626</v>
       </c>
       <c r="H1805" s="30"/>
     </row>
@@ -43968,7 +44006,7 @@
         <v>1595</v>
       </c>
       <c r="E1806" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F1806" s="30">
         <v>4275</v>
@@ -43988,12 +44026,12 @@
         <v>1596</v>
       </c>
       <c r="E1807" s="30" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="F1807" s="30"/>
       <c r="G1807" s="30"/>
       <c r="H1807" s="30" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1808" spans="1:8" ht="13">
@@ -44008,11 +44046,11 @@
         <v>21</v>
       </c>
       <c r="E1808" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1808" s="30"/>
       <c r="G1808" s="30" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
       <c r="H1808" s="30"/>
     </row>
@@ -44030,14 +44068,14 @@
         <v>21</v>
       </c>
       <c r="E1809" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1809" s="30"/>
       <c r="G1809" s="30" t="s">
-        <v>2639</v>
+        <v>3151</v>
       </c>
       <c r="H1809" s="30" t="s">
-        <v>2640</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1810" spans="1:8" ht="13">
@@ -44048,13 +44086,13 @@
         <v>76</v>
       </c>
       <c r="C1810" s="33" t="s">
-        <v>3033</v>
+        <v>3017</v>
       </c>
       <c r="D1810" s="10" t="s">
         <v>1597</v>
       </c>
       <c r="E1810" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1810" s="30"/>
       <c r="G1810" s="30"/>
@@ -44075,7 +44113,7 @@
       <c r="F1811" s="30"/>
       <c r="G1811" s="30"/>
       <c r="H1811" s="30" t="s">
-        <v>2641</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1812" spans="1:8" ht="13">
@@ -44090,11 +44128,11 @@
         <v>21</v>
       </c>
       <c r="E1812" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1812" s="30"/>
       <c r="G1812" s="30" t="s">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="H1812" s="30"/>
     </row>
@@ -44126,11 +44164,11 @@
         <v>21</v>
       </c>
       <c r="E1814" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1814" s="30"/>
       <c r="G1814" s="30" t="s">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="H1814" s="30"/>
     </row>
@@ -44162,14 +44200,14 @@
         <v>21</v>
       </c>
       <c r="E1816" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1816" s="30"/>
       <c r="G1816" s="30" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="H1816" s="30" t="s">
-        <v>2645</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1817" spans="1:8" ht="13">
@@ -44184,11 +44222,11 @@
         <v>21</v>
       </c>
       <c r="E1817" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1817" s="30"/>
       <c r="G1817" s="30" t="s">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="H1817" s="30"/>
     </row>
@@ -44204,11 +44242,11 @@
         <v>21</v>
       </c>
       <c r="E1818" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1818" s="30"/>
       <c r="G1818" s="30" t="s">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="H1818" s="30"/>
     </row>
@@ -44224,11 +44262,11 @@
         <v>21</v>
       </c>
       <c r="E1819" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1819" s="30"/>
       <c r="G1819" s="30" t="s">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="H1819" s="30"/>
     </row>
@@ -44260,11 +44298,11 @@
         <v>21</v>
       </c>
       <c r="E1821" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1821" s="30"/>
       <c r="G1821" s="30" t="s">
-        <v>2649</v>
+        <v>3160</v>
       </c>
       <c r="H1821" s="30"/>
     </row>
@@ -44314,14 +44352,14 @@
         <v>1604</v>
       </c>
       <c r="E1824" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1824" s="30" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
       <c r="G1824" s="30"/>
       <c r="H1824" s="30" t="s">
-        <v>2650</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1825" spans="1:8" ht="13">
@@ -44336,11 +44374,11 @@
         <v>21</v>
       </c>
       <c r="E1825" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1825" s="30"/>
       <c r="G1825" s="30" t="s">
-        <v>2651</v>
+        <v>2640</v>
       </c>
       <c r="H1825" s="30"/>
     </row>
@@ -44356,11 +44394,11 @@
         <v>21</v>
       </c>
       <c r="E1826" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1826" s="30"/>
       <c r="G1826" s="30" t="s">
-        <v>2652</v>
+        <v>2641</v>
       </c>
       <c r="H1826" s="30"/>
     </row>
@@ -44376,11 +44414,11 @@
         <v>21</v>
       </c>
       <c r="E1827" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1827" s="30"/>
       <c r="G1827" s="30" t="s">
-        <v>2653</v>
+        <v>2642</v>
       </c>
       <c r="H1827" s="30"/>
     </row>
@@ -44396,14 +44434,14 @@
         <v>21</v>
       </c>
       <c r="E1828" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1828" s="30"/>
       <c r="G1828" s="30" t="s">
-        <v>2654</v>
+        <v>2643</v>
       </c>
       <c r="H1828" s="30" t="s">
-        <v>2655</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1829" spans="1:8" ht="13">
@@ -44418,14 +44456,14 @@
         <v>21</v>
       </c>
       <c r="E1829" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1829" s="30"/>
       <c r="G1829" s="30" t="s">
-        <v>2656</v>
+        <v>2645</v>
       </c>
       <c r="H1829" s="30" t="s">
-        <v>2657</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1830" spans="1:8" ht="13">
@@ -44442,10 +44480,10 @@
         <v>1605</v>
       </c>
       <c r="E1830" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1830" s="30" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
       <c r="G1830" s="30"/>
       <c r="H1830" s="30"/>
@@ -44464,16 +44502,16 @@
         <v>21</v>
       </c>
       <c r="E1831" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1831" s="30">
         <v>4336</v>
       </c>
       <c r="G1831" s="30" t="s">
-        <v>2658</v>
+        <v>2647</v>
       </c>
       <c r="H1831" s="30" t="s">
-        <v>2659</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1832" spans="1:8" ht="13">
@@ -44503,16 +44541,16 @@
         <v>15</v>
       </c>
       <c r="D1833" s="10" t="s">
-        <v>3117</v>
+        <v>3101</v>
       </c>
       <c r="E1833" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1833" s="30" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
       <c r="G1833" s="30" t="s">
-        <v>2660</v>
+        <v>2649</v>
       </c>
       <c r="H1833" s="30"/>
     </row>
@@ -44544,11 +44582,11 @@
         <v>21</v>
       </c>
       <c r="E1835" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1835" s="30"/>
       <c r="G1835" s="30" t="s">
-        <v>2661</v>
+        <v>2650</v>
       </c>
       <c r="H1835" s="30"/>
     </row>
@@ -44564,11 +44602,11 @@
         <v>21</v>
       </c>
       <c r="E1836" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1836" s="30"/>
       <c r="G1836" s="30" t="s">
-        <v>2662</v>
+        <v>2651</v>
       </c>
       <c r="H1836" s="30"/>
     </row>
@@ -44584,14 +44622,14 @@
         <v>21</v>
       </c>
       <c r="E1837" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1837" s="30"/>
       <c r="G1837" s="30" t="s">
-        <v>2663</v>
+        <v>2652</v>
       </c>
       <c r="H1837" s="30" t="s">
-        <v>2664</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1838" spans="1:8" ht="13">
@@ -44606,11 +44644,11 @@
         <v>21</v>
       </c>
       <c r="E1838" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1838" s="30"/>
       <c r="G1838" s="30" t="s">
-        <v>2665</v>
+        <v>2654</v>
       </c>
       <c r="H1838" s="30"/>
     </row>
@@ -44626,11 +44664,11 @@
         <v>21</v>
       </c>
       <c r="E1839" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1839" s="30"/>
       <c r="G1839" s="30" t="s">
-        <v>2666</v>
+        <v>2655</v>
       </c>
       <c r="H1839" s="30"/>
     </row>
@@ -44648,7 +44686,7 @@
         <v>1609</v>
       </c>
       <c r="E1840" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1840" s="30"/>
       <c r="G1840" s="30"/>
@@ -44666,11 +44704,11 @@
         <v>21</v>
       </c>
       <c r="E1841" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1841" s="30"/>
       <c r="G1841" s="30" t="s">
-        <v>2667</v>
+        <v>2656</v>
       </c>
       <c r="H1841" s="30"/>
     </row>
@@ -44686,11 +44724,11 @@
         <v>21</v>
       </c>
       <c r="E1842" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1842" s="30"/>
       <c r="G1842" s="30" t="s">
-        <v>2668</v>
+        <v>2657</v>
       </c>
       <c r="H1842" s="30"/>
     </row>
@@ -44706,11 +44744,11 @@
         <v>21</v>
       </c>
       <c r="E1843" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1843" s="30"/>
       <c r="G1843" s="30" t="s">
-        <v>2669</v>
+        <v>2658</v>
       </c>
       <c r="H1843" s="30"/>
     </row>
@@ -44726,11 +44764,11 @@
         <v>21</v>
       </c>
       <c r="E1844" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1844" s="30"/>
       <c r="G1844" s="30" t="s">
-        <v>2670</v>
+        <v>2659</v>
       </c>
       <c r="H1844" s="30"/>
     </row>
@@ -44762,11 +44800,11 @@
         <v>21</v>
       </c>
       <c r="E1846" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1846" s="30"/>
       <c r="G1846" s="30" t="s">
-        <v>2671</v>
+        <v>2660</v>
       </c>
       <c r="H1846" s="30"/>
     </row>
@@ -44782,11 +44820,11 @@
         <v>21</v>
       </c>
       <c r="E1847" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1847" s="30"/>
       <c r="G1847" s="30" t="s">
-        <v>2672</v>
+        <v>3148</v>
       </c>
       <c r="H1847" s="30"/>
     </row>
@@ -44798,17 +44836,17 @@
         <v>114</v>
       </c>
       <c r="C1848" s="33" t="s">
-        <v>3116</v>
+        <v>3100</v>
       </c>
       <c r="D1848" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E1848" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30" t="s">
-        <v>2673</v>
+        <v>2661</v>
       </c>
       <c r="H1848" s="30"/>
     </row>
@@ -44842,11 +44880,11 @@
         <v>21</v>
       </c>
       <c r="E1850" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1850" s="30"/>
       <c r="G1850" s="30" t="s">
-        <v>2674</v>
+        <v>2662</v>
       </c>
       <c r="H1850" s="30"/>
     </row>
@@ -44862,11 +44900,11 @@
         <v>21</v>
       </c>
       <c r="E1851" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1851" s="30"/>
       <c r="G1851" s="30" t="s">
-        <v>2675</v>
+        <v>2663</v>
       </c>
       <c r="H1851" s="30"/>
     </row>
@@ -44900,14 +44938,14 @@
         <v>21</v>
       </c>
       <c r="E1853" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1853" s="30"/>
       <c r="G1853" s="30" t="s">
-        <v>2676</v>
+        <v>2664</v>
       </c>
       <c r="H1853" s="30" t="s">
-        <v>2677</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1854" spans="1:8" ht="13">
@@ -44986,11 +45024,11 @@
         <v>21</v>
       </c>
       <c r="E1858" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F1858" s="30"/>
       <c r="G1858" s="30" t="s">
-        <v>2678</v>
+        <v>2666</v>
       </c>
       <c r="H1858" s="30"/>
     </row>
@@ -45146,7 +45184,9 @@
       <c r="E1866" s="30" t="s">
         <v>1414</v>
       </c>
-      <c r="F1866" s="30"/>
+      <c r="F1866" s="30" t="s">
+        <v>3162</v>
+      </c>
       <c r="G1866" s="30" t="s">
         <v>1627</v>
       </c>
@@ -45172,7 +45212,7 @@
       </c>
       <c r="F1867" s="30"/>
       <c r="G1867" s="30" t="s">
-        <v>3086</v>
+        <v>3070</v>
       </c>
       <c r="H1867" s="30" t="s">
         <v>1629</v>
@@ -45264,7 +45304,7 @@
         <v>138</v>
       </c>
       <c r="C1872" s="33" t="s">
-        <v>3002</v>
+        <v>2986</v>
       </c>
       <c r="D1872" s="17" t="s">
         <v>1635</v>
@@ -45444,7 +45484,7 @@
         <v>148</v>
       </c>
       <c r="C1882" s="33" t="s">
-        <v>3107</v>
+        <v>3091</v>
       </c>
       <c r="D1882" s="17" t="s">
         <v>1644</v>
@@ -45486,7 +45526,7 @@
         <v>150</v>
       </c>
       <c r="C1884" s="33" t="s">
-        <v>3106</v>
+        <v>3090</v>
       </c>
       <c r="D1884" s="17" t="s">
         <v>1646</v>
@@ -45618,7 +45658,7 @@
       </c>
       <c r="F1891" s="30"/>
       <c r="G1891" s="30" t="s">
-        <v>2679</v>
+        <v>2667</v>
       </c>
       <c r="H1891" s="30" t="s">
         <v>1654</v>
@@ -45756,7 +45796,7 @@
         <v>11</v>
       </c>
       <c r="C1898" s="33" t="s">
-        <v>3035</v>
+        <v>3019</v>
       </c>
       <c r="D1898" s="17" t="s">
         <v>1661</v>
@@ -45843,7 +45883,7 @@
         <v>1666</v>
       </c>
       <c r="H1902" s="30" t="s">
-        <v>2921</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1903" spans="1:8" ht="13">
@@ -46081,7 +46121,7 @@
         <v>1680</v>
       </c>
       <c r="H1915" s="30" t="s">
-        <v>2922</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1916" spans="1:8" ht="13">
@@ -46417,7 +46457,7 @@
         <v>1702</v>
       </c>
       <c r="H1933" s="30" t="s">
-        <v>2923</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1934" spans="1:8" ht="13">
@@ -46630,7 +46670,7 @@
         <v>58</v>
       </c>
       <c r="C1945" s="33" t="s">
-        <v>2949</v>
+        <v>2933</v>
       </c>
       <c r="D1945" s="17" t="s">
         <v>1716</v>
@@ -46696,10 +46736,10 @@
       </c>
       <c r="F1948" s="30"/>
       <c r="G1948" s="30" t="s">
-        <v>2680</v>
+        <v>2668</v>
       </c>
       <c r="H1948" s="30" t="s">
-        <v>2681</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1949" spans="1:8" ht="13">
@@ -46740,7 +46780,7 @@
       </c>
       <c r="F1950" s="30"/>
       <c r="G1950" s="30" t="s">
-        <v>2682</v>
+        <v>2670</v>
       </c>
       <c r="H1950" s="30"/>
     </row>
@@ -46762,10 +46802,10 @@
       </c>
       <c r="F1951" s="30"/>
       <c r="G1951" s="30" t="s">
-        <v>2683</v>
+        <v>2671</v>
       </c>
       <c r="H1951" s="30" t="s">
-        <v>2681</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1952" spans="1:8" ht="13">
@@ -46852,10 +46892,10 @@
       </c>
       <c r="F1956" s="30"/>
       <c r="G1956" s="30" t="s">
-        <v>2684</v>
+        <v>2672</v>
       </c>
       <c r="H1956" s="30" t="s">
-        <v>2685</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1957" spans="1:8" ht="13">
@@ -46874,10 +46914,10 @@
       </c>
       <c r="F1957" s="30"/>
       <c r="G1957" s="30" t="s">
-        <v>2686</v>
+        <v>2674</v>
       </c>
       <c r="H1957" s="30" t="s">
-        <v>2687</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1958" spans="1:8" ht="13">
@@ -46894,12 +46934,14 @@
       <c r="E1958" s="30" t="s">
         <v>1414</v>
       </c>
-      <c r="F1958" s="30"/>
+      <c r="F1958" s="30" t="s">
+        <v>3166</v>
+      </c>
       <c r="G1958" s="30" t="s">
-        <v>2688</v>
+        <v>3165</v>
       </c>
       <c r="H1958" s="30" t="s">
-        <v>2689</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1959" spans="1:8" ht="13">
@@ -46918,10 +46960,10 @@
       </c>
       <c r="F1959" s="30"/>
       <c r="G1959" s="30" t="s">
-        <v>2690</v>
+        <v>2677</v>
       </c>
       <c r="H1959" s="30" t="s">
-        <v>2691</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1960" spans="1:8" ht="13">
@@ -46978,10 +47020,10 @@
       </c>
       <c r="F1962" s="30"/>
       <c r="G1962" s="30" t="s">
-        <v>2692</v>
+        <v>2679</v>
       </c>
       <c r="H1962" s="30" t="s">
-        <v>2693</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1963" spans="1:8" ht="13">
@@ -47018,10 +47060,10 @@
       </c>
       <c r="F1964" s="30"/>
       <c r="G1964" s="30" t="s">
-        <v>2694</v>
+        <v>2681</v>
       </c>
       <c r="H1964" s="30" t="s">
-        <v>2695</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1965" spans="1:8" ht="13">
@@ -47049,7 +47091,7 @@
       </c>
       <c r="C1966" s="19"/>
       <c r="D1966" s="10" t="s">
-        <v>3089</v>
+        <v>3073</v>
       </c>
       <c r="E1966" s="30"/>
       <c r="F1966" s="30"/>
@@ -47096,10 +47138,10 @@
       </c>
       <c r="F1968" s="30"/>
       <c r="G1968" s="30" t="s">
-        <v>2696</v>
+        <v>2683</v>
       </c>
       <c r="H1968" s="30" t="s">
-        <v>2697</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1969" spans="1:8" ht="13">
@@ -47118,10 +47160,10 @@
       </c>
       <c r="F1969" s="30"/>
       <c r="G1969" s="30" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
       <c r="H1969" s="30" t="s">
-        <v>2699</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1970" spans="1:8" ht="13">
@@ -47174,7 +47216,7 @@
       </c>
       <c r="F1972" s="30"/>
       <c r="G1972" s="30" t="s">
-        <v>2700</v>
+        <v>2687</v>
       </c>
       <c r="H1972" s="30" t="s">
         <v>1418</v>
@@ -47212,7 +47254,7 @@
       </c>
       <c r="F1974" s="30"/>
       <c r="G1974" s="30" t="s">
-        <v>2701</v>
+        <v>2688</v>
       </c>
       <c r="H1974" s="30"/>
     </row>
@@ -47224,7 +47266,7 @@
         <v>88</v>
       </c>
       <c r="C1975" s="33" t="s">
-        <v>3121</v>
+        <v>3105</v>
       </c>
       <c r="D1975" s="17" t="s">
         <v>1733</v>
@@ -47366,7 +47408,7 @@
         <v>95</v>
       </c>
       <c r="C1982" s="33" t="s">
-        <v>3091</v>
+        <v>3075</v>
       </c>
       <c r="D1982" s="17" t="s">
         <v>1744</v>
@@ -47498,7 +47540,7 @@
         <v>102</v>
       </c>
       <c r="C1989" s="33" t="s">
-        <v>2950</v>
+        <v>2934</v>
       </c>
       <c r="D1989" s="17" t="s">
         <v>1751</v>
@@ -47516,7 +47558,7 @@
         <v>103</v>
       </c>
       <c r="C1990" s="33" t="s">
-        <v>2950</v>
+        <v>2934</v>
       </c>
       <c r="D1990" s="17" t="s">
         <v>1752</v>
@@ -47664,10 +47706,10 @@
       </c>
       <c r="F1998" s="30"/>
       <c r="G1998" s="30" t="s">
-        <v>2702</v>
+        <v>2689</v>
       </c>
       <c r="H1998" s="30" t="s">
-        <v>2703</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1999" spans="1:8" ht="13">
@@ -47678,7 +47720,7 @@
         <v>112</v>
       </c>
       <c r="C1999" s="33" t="s">
-        <v>3041</v>
+        <v>3025</v>
       </c>
       <c r="D1999" s="17" t="s">
         <v>1761</v>
@@ -47689,7 +47731,7 @@
       <c r="F1999" s="30"/>
       <c r="G1999" s="30"/>
       <c r="H1999" s="30" t="s">
-        <v>2916</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="2000" spans="1:8" ht="13">
@@ -47788,7 +47830,7 @@
         <v>118</v>
       </c>
       <c r="C2005" s="33" t="s">
-        <v>2952</v>
+        <v>2936</v>
       </c>
       <c r="D2005" s="17" t="s">
         <v>1767</v>
@@ -47799,7 +47841,7 @@
       <c r="F2005" s="30"/>
       <c r="G2005" s="30"/>
       <c r="H2005" s="30" t="s">
-        <v>2924</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="2006" spans="1:8" ht="13">
@@ -47839,7 +47881,7 @@
         <v>1770</v>
       </c>
       <c r="H2007" s="30" t="s">
-        <v>2704</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="2008" spans="1:8" ht="13">
@@ -47879,7 +47921,7 @@
         <v>1772</v>
       </c>
       <c r="H2009" s="30" t="s">
-        <v>2705</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2010" spans="1:8" ht="13">
@@ -47890,7 +47932,7 @@
         <v>123</v>
       </c>
       <c r="C2010" s="33" t="s">
-        <v>3049</v>
+        <v>3033</v>
       </c>
       <c r="D2010" s="17" t="s">
         <v>21</v>
@@ -47956,7 +47998,7 @@
         <v>1778</v>
       </c>
       <c r="E2013" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F2013" s="30">
         <v>5303</v>
@@ -47981,7 +48023,7 @@
         <v>1769</v>
       </c>
       <c r="F2014" s="30" t="s">
-        <v>3146</v>
+        <v>3130</v>
       </c>
       <c r="G2014" s="30"/>
       <c r="H2014" s="30" t="s">
@@ -48007,7 +48049,7 @@
         <v>1781</v>
       </c>
       <c r="H2015" s="30" t="s">
-        <v>2706</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="2016" spans="1:8" ht="13">
@@ -48139,7 +48181,7 @@
       <c r="F2022" s="30"/>
       <c r="G2022" s="30"/>
       <c r="H2022" s="30" t="s">
-        <v>2707</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="2023" spans="1:8" ht="13">
@@ -48159,7 +48201,7 @@
       <c r="F2023" s="30"/>
       <c r="G2023" s="30"/>
       <c r="H2023" s="30" t="s">
-        <v>2708</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="2024" spans="1:8" ht="13">
@@ -48303,7 +48345,7 @@
         <v>1803</v>
       </c>
       <c r="H2030" s="30" t="s">
-        <v>2709</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="2031" spans="1:8" ht="13">
@@ -48467,7 +48509,7 @@
         <v>1818</v>
       </c>
       <c r="H2038" s="30" t="s">
-        <v>2710</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="2039" spans="1:8" ht="13">
@@ -48683,7 +48725,7 @@
         <v>1836</v>
       </c>
       <c r="H2048" s="30" t="s">
-        <v>2711</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="2049" spans="1:8" ht="13">
@@ -48765,7 +48807,7 @@
         <v>1841</v>
       </c>
       <c r="H2052" s="30" t="s">
-        <v>2712</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="2053" spans="1:8" ht="13">
@@ -48787,7 +48829,7 @@
         <v>1842</v>
       </c>
       <c r="H2053" s="30" t="s">
-        <v>2713</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="2054" spans="1:8" ht="13">
@@ -48825,7 +48867,7 @@
       </c>
       <c r="G2055" s="30"/>
       <c r="H2055" s="30" t="s">
-        <v>2714</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="2056" spans="1:8" ht="13">
@@ -48911,7 +48953,7 @@
       <c r="F2060" s="30"/>
       <c r="G2060" s="30"/>
       <c r="H2060" s="30" t="s">
-        <v>2715</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="2061" spans="1:8" ht="13">
@@ -48930,10 +48972,10 @@
       </c>
       <c r="F2061" s="30"/>
       <c r="G2061" s="30" t="s">
-        <v>2716</v>
+        <v>2703</v>
       </c>
       <c r="H2061" s="30" t="s">
-        <v>2717</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="2062" spans="1:8" ht="13">
@@ -48950,14 +48992,14 @@
         <v>21</v>
       </c>
       <c r="E2062" s="30" t="s">
-        <v>2718</v>
+        <v>2705</v>
       </c>
       <c r="F2062" s="30"/>
       <c r="G2062" s="30" t="s">
-        <v>2719</v>
+        <v>2706</v>
       </c>
       <c r="H2062" s="30" t="s">
-        <v>2925</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="2063" spans="1:8" ht="13">
@@ -48975,7 +49017,7 @@
       <c r="F2063" s="30"/>
       <c r="G2063" s="30"/>
       <c r="H2063" s="30" t="s">
-        <v>2720</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="2064" spans="1:8" ht="13">
@@ -48994,10 +49036,10 @@
       </c>
       <c r="F2064" s="30"/>
       <c r="G2064" s="30" t="s">
-        <v>2721</v>
+        <v>2708</v>
       </c>
       <c r="H2064" s="30" t="s">
-        <v>2722</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="2065" spans="1:8" ht="13">
@@ -49016,10 +49058,10 @@
       </c>
       <c r="F2065" s="30"/>
       <c r="G2065" s="30" t="s">
-        <v>2723</v>
+        <v>2710</v>
       </c>
       <c r="H2065" s="30" t="s">
-        <v>2724</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="2066" spans="1:8" ht="13">
@@ -49038,10 +49080,10 @@
       </c>
       <c r="F2066" s="30"/>
       <c r="G2066" s="30" t="s">
-        <v>2725</v>
+        <v>2712</v>
       </c>
       <c r="H2066" s="30" t="s">
-        <v>2726</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2067" spans="1:8" ht="13">
@@ -49060,10 +49102,10 @@
       </c>
       <c r="F2067" s="30"/>
       <c r="G2067" s="30" t="s">
-        <v>2727</v>
+        <v>2714</v>
       </c>
       <c r="H2067" s="30" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="2068" spans="1:8" ht="13">
@@ -49082,10 +49124,10 @@
       </c>
       <c r="F2068" s="30"/>
       <c r="G2068" s="30" t="s">
-        <v>2729</v>
+        <v>2716</v>
       </c>
       <c r="H2068" s="30" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="2069" spans="1:8" ht="13">
@@ -49104,10 +49146,10 @@
       </c>
       <c r="F2069" s="30"/>
       <c r="G2069" s="30" t="s">
-        <v>2730</v>
+        <v>2717</v>
       </c>
       <c r="H2069" s="30" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="2070" spans="1:8" ht="13">
@@ -49127,7 +49169,7 @@
       <c r="F2070" s="30"/>
       <c r="G2070" s="30"/>
       <c r="H2070" s="30" t="s">
-        <v>2731</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="2071" spans="1:8" ht="13">
@@ -49146,10 +49188,10 @@
       </c>
       <c r="F2071" s="30"/>
       <c r="G2071" s="30" t="s">
-        <v>2732</v>
+        <v>2719</v>
       </c>
       <c r="H2071" s="30" t="s">
-        <v>2733</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="2072" spans="1:8" ht="13">
@@ -49200,10 +49242,10 @@
       </c>
       <c r="F2074" s="30"/>
       <c r="G2074" s="30" t="s">
-        <v>2734</v>
+        <v>2721</v>
       </c>
       <c r="H2074" s="30" t="s">
-        <v>2735</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="2075" spans="1:8" ht="13">
@@ -49227,7 +49269,7 @@
       </c>
       <c r="G2075" s="30"/>
       <c r="H2075" s="30" t="s">
-        <v>2736</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="2076" spans="1:8" ht="14">
@@ -49247,13 +49289,13 @@
         <v>1769</v>
       </c>
       <c r="F2076" s="26" t="s">
-        <v>2737</v>
+        <v>2724</v>
       </c>
       <c r="G2076" s="30" t="s">
-        <v>2738</v>
+        <v>2725</v>
       </c>
       <c r="H2076" s="30" t="s">
-        <v>2739</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="2077" spans="1:8" ht="13">
@@ -49295,7 +49337,7 @@
       </c>
       <c r="G2078" s="30"/>
       <c r="H2078" s="27" t="s">
-        <v>2740</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="2079" spans="1:8" ht="13">
@@ -49317,7 +49359,7 @@
       </c>
       <c r="G2079" s="30"/>
       <c r="H2079" s="30" t="s">
-        <v>2741</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="2080" spans="1:8" ht="13">
@@ -49337,13 +49379,13 @@
         <v>1769</v>
       </c>
       <c r="F2080" s="30" t="s">
-        <v>3052</v>
+        <v>3036</v>
       </c>
       <c r="G2080" s="30" t="s">
-        <v>3051</v>
+        <v>3035</v>
       </c>
       <c r="H2080" s="30" t="s">
-        <v>2926</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="2081" spans="1:8" ht="13">
@@ -49397,7 +49439,7 @@
       </c>
       <c r="G2083" s="30"/>
       <c r="H2083" s="30" t="s">
-        <v>2742</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="2084" spans="1:8" ht="13">
@@ -49416,10 +49458,10 @@
       </c>
       <c r="F2084" s="30"/>
       <c r="G2084" s="27" t="s">
-        <v>2743</v>
+        <v>2730</v>
       </c>
       <c r="H2084" s="30" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="2085" spans="1:8" ht="13">
@@ -49440,7 +49482,7 @@
       </c>
       <c r="F2085" s="30"/>
       <c r="G2085" s="30" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="H2085" s="30"/>
     </row>
@@ -49478,10 +49520,10 @@
       </c>
       <c r="F2087" s="30"/>
       <c r="G2087" s="30" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="H2087" s="30" t="s">
-        <v>2747</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="2088" spans="1:8" ht="13">
@@ -49492,7 +49534,7 @@
         <v>60</v>
       </c>
       <c r="C2088" s="33" t="s">
-        <v>2946</v>
+        <v>2930</v>
       </c>
       <c r="D2088" s="17" t="s">
         <v>1866</v>
@@ -49503,7 +49545,7 @@
       <c r="F2088" s="30"/>
       <c r="G2088" s="30"/>
       <c r="H2088" s="30" t="s">
-        <v>2748</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="2089" spans="1:8" ht="13">
@@ -49554,7 +49596,7 @@
       </c>
       <c r="F2091" s="30"/>
       <c r="G2091" s="30" t="s">
-        <v>2749</v>
+        <v>2736</v>
       </c>
       <c r="H2091" s="30"/>
     </row>
@@ -49574,7 +49616,7 @@
       </c>
       <c r="F2092" s="30"/>
       <c r="G2092" s="30" t="s">
-        <v>2750</v>
+        <v>2737</v>
       </c>
       <c r="H2092" s="30"/>
     </row>
@@ -49596,10 +49638,10 @@
         <v>5414</v>
       </c>
       <c r="G2093" s="32" t="s">
-        <v>2751</v>
+        <v>2738</v>
       </c>
       <c r="H2093" s="30" t="s">
-        <v>2927</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="2094" spans="1:8" ht="13">
@@ -49618,10 +49660,10 @@
       </c>
       <c r="F2094" s="30"/>
       <c r="G2094" s="30" t="s">
-        <v>2752</v>
+        <v>2739</v>
       </c>
       <c r="H2094" s="30" t="s">
-        <v>2753</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="2095" spans="1:8" ht="13">
@@ -49640,10 +49682,10 @@
       </c>
       <c r="F2095" s="30"/>
       <c r="G2095" s="30" t="s">
-        <v>2754</v>
+        <v>2741</v>
       </c>
       <c r="H2095" s="30" t="s">
-        <v>2755</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="2096" spans="1:8" ht="13">
@@ -49667,7 +49709,7 @@
       </c>
       <c r="G2096" s="30"/>
       <c r="H2096" s="30" t="s">
-        <v>2928</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="2097" spans="1:8" ht="13">
@@ -49691,7 +49733,7 @@
       </c>
       <c r="G2097" s="30"/>
       <c r="H2097" s="30" t="s">
-        <v>2756</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="2098" spans="1:8" ht="15">
@@ -49709,11 +49751,11 @@
         <v>1769</v>
       </c>
       <c r="F2098" s="28" t="s">
-        <v>2757</v>
+        <v>2744</v>
       </c>
       <c r="G2098" s="30"/>
       <c r="H2098" s="30" t="s">
-        <v>2758</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="2099" spans="1:8" ht="13">
@@ -49724,7 +49766,7 @@
         <v>71</v>
       </c>
       <c r="C2099" s="33" t="s">
-        <v>3036</v>
+        <v>3020</v>
       </c>
       <c r="D2099" s="17" t="s">
         <v>1872</v>
@@ -49735,7 +49777,7 @@
       <c r="F2099" s="30"/>
       <c r="G2099" s="30"/>
       <c r="H2099" s="30" t="s">
-        <v>2759</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="2100" spans="1:8" ht="13">
@@ -49757,7 +49799,7 @@
       <c r="F2100" s="30"/>
       <c r="G2100" s="30"/>
       <c r="H2100" s="30" t="s">
-        <v>2760</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="2101" spans="1:8" ht="13">
@@ -49768,7 +49810,7 @@
         <v>73</v>
       </c>
       <c r="C2101" s="33" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="D2101" s="17" t="s">
         <v>1874</v>
@@ -49779,7 +49821,7 @@
       <c r="F2101" s="30"/>
       <c r="G2101" s="30"/>
       <c r="H2101" s="30" t="s">
-        <v>2929</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="2102" spans="1:8" ht="13">
@@ -49790,7 +49832,7 @@
         <v>74</v>
       </c>
       <c r="C2102" s="33" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="D2102" s="17" t="s">
         <v>1875</v>
@@ -49801,7 +49843,7 @@
       <c r="F2102" s="30"/>
       <c r="G2102" s="30"/>
       <c r="H2102" s="30" t="s">
-        <v>2761</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="2103" spans="1:8" ht="13">
@@ -49812,7 +49854,7 @@
         <v>75</v>
       </c>
       <c r="C2103" s="33" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="D2103" s="17" t="s">
         <v>21</v>
@@ -49822,10 +49864,10 @@
       </c>
       <c r="F2103" s="30"/>
       <c r="G2103" s="30" t="s">
-        <v>2762</v>
+        <v>2749</v>
       </c>
       <c r="H2103" s="30" t="s">
-        <v>2763</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="2104" spans="1:8" ht="13">
@@ -49847,7 +49889,7 @@
       </c>
       <c r="G2104" s="30"/>
       <c r="H2104" s="30" t="s">
-        <v>2764</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="2105" spans="1:8" ht="13">
@@ -49866,7 +49908,7 @@
       </c>
       <c r="F2105" s="30"/>
       <c r="G2105" s="27" t="s">
-        <v>2765</v>
+        <v>2752</v>
       </c>
       <c r="H2105" s="30"/>
     </row>
@@ -49886,7 +49928,7 @@
       </c>
       <c r="F2106" s="30"/>
       <c r="G2106" s="30" t="s">
-        <v>2766</v>
+        <v>2753</v>
       </c>
       <c r="H2106" s="30"/>
     </row>
@@ -49906,7 +49948,7 @@
       </c>
       <c r="F2107" s="30"/>
       <c r="G2107" s="30" t="s">
-        <v>2767</v>
+        <v>2754</v>
       </c>
       <c r="H2107" s="30"/>
     </row>
@@ -49926,7 +49968,7 @@
       </c>
       <c r="F2108" s="30"/>
       <c r="G2108" s="30" t="s">
-        <v>2768</v>
+        <v>2755</v>
       </c>
       <c r="H2108" s="30"/>
     </row>
@@ -49946,7 +49988,7 @@
       </c>
       <c r="F2109" s="30"/>
       <c r="G2109" s="30" t="s">
-        <v>2769</v>
+        <v>2756</v>
       </c>
       <c r="H2109" s="30"/>
     </row>
@@ -49967,13 +50009,13 @@
         <v>1769</v>
       </c>
       <c r="F2110" s="30" t="s">
-        <v>3134</v>
+        <v>3118</v>
       </c>
       <c r="G2110" s="30" t="s">
-        <v>2770</v>
+        <v>2757</v>
       </c>
       <c r="H2110" s="30" t="s">
-        <v>2930</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="2111" spans="1:8" ht="13">
@@ -49992,10 +50034,10 @@
       </c>
       <c r="F2111" s="30"/>
       <c r="G2111" s="30" t="s">
-        <v>2771</v>
+        <v>2758</v>
       </c>
       <c r="H2111" s="30" t="s">
-        <v>2772</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="2112" spans="1:8" ht="13">
@@ -50014,10 +50056,10 @@
       </c>
       <c r="F2112" s="30"/>
       <c r="G2112" s="30" t="s">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="H2112" s="30" t="s">
-        <v>2774</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="2113" spans="1:8" ht="13">
@@ -50039,7 +50081,7 @@
       </c>
       <c r="G2113" s="30"/>
       <c r="H2113" s="30" t="s">
-        <v>2775</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="2114" spans="1:8" ht="13">
@@ -50108,14 +50150,14 @@
         <v>21</v>
       </c>
       <c r="E2117" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F2117" s="30"/>
       <c r="G2117" s="30" t="s">
-        <v>2776</v>
+        <v>2763</v>
       </c>
       <c r="H2117" s="30" t="s">
-        <v>2931</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="2118" spans="1:8" ht="13">
@@ -50130,16 +50172,16 @@
         <v>21</v>
       </c>
       <c r="E2118" s="30" t="s">
-        <v>2777</v>
+        <v>2764</v>
       </c>
       <c r="F2118" s="31">
         <v>5454</v>
       </c>
       <c r="G2118" s="30" t="s">
-        <v>2778</v>
+        <v>2765</v>
       </c>
       <c r="H2118" s="30" t="s">
-        <v>2779</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="2119" spans="1:8" ht="13">
@@ -50172,11 +50214,11 @@
         <v>21</v>
       </c>
       <c r="E2120" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F2120" s="30"/>
       <c r="G2120" s="30" t="s">
-        <v>2780</v>
+        <v>2767</v>
       </c>
       <c r="H2120" s="30"/>
     </row>
@@ -50210,14 +50252,14 @@
         <v>21</v>
       </c>
       <c r="E2122" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F2122" s="30"/>
       <c r="G2122" s="30" t="s">
-        <v>2781</v>
+        <v>2768</v>
       </c>
       <c r="H2122" s="30" t="s">
-        <v>2932</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="2123" spans="1:8" ht="13">
@@ -50264,14 +50306,14 @@
         <v>21</v>
       </c>
       <c r="E2125" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F2125" s="30"/>
       <c r="G2125" s="30" t="s">
-        <v>2782</v>
+        <v>2769</v>
       </c>
       <c r="H2125" s="30" t="s">
-        <v>2783</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="2126" spans="1:8" ht="13">
@@ -50286,14 +50328,14 @@
         <v>21</v>
       </c>
       <c r="E2126" s="30" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F2126" s="30"/>
       <c r="G2126" s="30" t="s">
-        <v>2784</v>
+        <v>2771</v>
       </c>
       <c r="H2126" s="30" t="s">
-        <v>2933</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="2127" spans="1:8" ht="13">
@@ -50315,7 +50357,7 @@
       </c>
       <c r="G2127" s="30"/>
       <c r="H2127" s="30" t="s">
-        <v>2785</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="2128" spans="1:8" ht="13">
@@ -50326,7 +50368,7 @@
         <v>100</v>
       </c>
       <c r="C2128" s="33" t="s">
-        <v>3020</v>
+        <v>3004</v>
       </c>
       <c r="D2128" s="17" t="s">
         <v>21</v>
@@ -50336,10 +50378,10 @@
       </c>
       <c r="F2128" s="30"/>
       <c r="G2128" s="30" t="s">
-        <v>2786</v>
+        <v>2773</v>
       </c>
       <c r="H2128" s="30" t="s">
-        <v>2787</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="2129" spans="1:8" ht="13">
@@ -50358,10 +50400,10 @@
       </c>
       <c r="F2129" s="30"/>
       <c r="G2129" s="30" t="s">
-        <v>2788</v>
+        <v>2775</v>
       </c>
       <c r="H2129" s="30" t="s">
-        <v>2789</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="2130" spans="1:8" ht="13">
@@ -50372,7 +50414,7 @@
         <v>102</v>
       </c>
       <c r="C2130" s="33" t="s">
-        <v>2960</v>
+        <v>2944</v>
       </c>
       <c r="D2130" s="17" t="s">
         <v>21</v>
@@ -50385,7 +50427,7 @@
         <v>1888</v>
       </c>
       <c r="H2130" s="30" t="s">
-        <v>2790</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="2131" spans="1:8" ht="13">
@@ -50403,7 +50445,7 @@
         <v>1887</v>
       </c>
       <c r="F2131" s="30" t="s">
-        <v>2791</v>
+        <v>2778</v>
       </c>
       <c r="G2131" s="30"/>
       <c r="H2131" s="30"/>
@@ -50710,7 +50752,7 @@
         <v>120</v>
       </c>
       <c r="C2148" s="33" t="s">
-        <v>3110</v>
+        <v>3094</v>
       </c>
       <c r="D2148" s="17" t="s">
         <v>1910</v>
@@ -50748,7 +50790,7 @@
         <v>1912</v>
       </c>
       <c r="E2150" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F2150" s="30">
         <v>5508</v>
@@ -50768,10 +50810,10 @@
         <v>1913</v>
       </c>
       <c r="E2151" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F2151" s="30" t="s">
-        <v>3147</v>
+        <v>3131</v>
       </c>
       <c r="G2151" s="30"/>
       <c r="H2151" s="30"/>
@@ -50784,7 +50826,7 @@
         <v>124</v>
       </c>
       <c r="C2152" s="33" t="s">
-        <v>3056</v>
+        <v>3040</v>
       </c>
       <c r="D2152" s="17" t="s">
         <v>1914</v>
@@ -50856,10 +50898,10 @@
         <v>128</v>
       </c>
       <c r="C2156" s="33" t="s">
-        <v>3058</v>
+        <v>3042</v>
       </c>
       <c r="D2156" s="10" t="s">
-        <v>3057</v>
+        <v>3041</v>
       </c>
       <c r="E2156" s="30"/>
       <c r="F2156" s="30"/>
@@ -50987,7 +51029,7 @@
         <v>1887</v>
       </c>
       <c r="F2162" s="30" t="s">
-        <v>3157</v>
+        <v>3141</v>
       </c>
       <c r="G2162" s="30" t="s">
         <v>1926</v>
@@ -51142,7 +51184,7 @@
         <v>142</v>
       </c>
       <c r="C2170" s="33" t="s">
-        <v>3048</v>
+        <v>3032</v>
       </c>
       <c r="D2170" s="17" t="s">
         <v>1935</v>
@@ -51356,7 +51398,7 @@
         <v>21</v>
       </c>
       <c r="E2181" s="30" t="s">
-        <v>2792</v>
+        <v>2779</v>
       </c>
       <c r="F2181" s="31">
         <v>5572</v>
@@ -51365,7 +51407,7 @@
         <v>1946</v>
       </c>
       <c r="H2181" s="30" t="s">
-        <v>2793</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="2182" spans="1:8" ht="13">
@@ -51420,7 +51462,7 @@
       </c>
       <c r="F2184" s="30"/>
       <c r="G2184" s="30" t="s">
-        <v>2794</v>
+        <v>2781</v>
       </c>
       <c r="H2184" s="30"/>
     </row>
@@ -51530,7 +51572,7 @@
         <v>162</v>
       </c>
       <c r="C2190" s="33" t="s">
-        <v>3096</v>
+        <v>3080</v>
       </c>
       <c r="D2190" s="17" t="s">
         <v>1955</v>
@@ -51570,7 +51612,7 @@
         <v>164</v>
       </c>
       <c r="C2192" s="33" t="s">
-        <v>3095</v>
+        <v>3079</v>
       </c>
       <c r="D2192" s="17" t="s">
         <v>21</v>
@@ -51706,7 +51748,7 @@
       </c>
       <c r="F2199" s="30"/>
       <c r="G2199" s="30" t="s">
-        <v>2795</v>
+        <v>3146</v>
       </c>
       <c r="H2199" s="30"/>
     </row>
@@ -51848,16 +51890,16 @@
         <v>21</v>
       </c>
       <c r="E2207" s="30" t="s">
-        <v>2796</v>
+        <v>2782</v>
       </c>
       <c r="F2207" s="31">
         <v>5620</v>
       </c>
       <c r="G2207" s="30" t="s">
-        <v>2797</v>
+        <v>2783</v>
       </c>
       <c r="H2207" s="30" t="s">
-        <v>2934</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="2208" spans="1:8" ht="13">
@@ -51892,12 +51934,12 @@
         <v>1974</v>
       </c>
       <c r="E2209" s="30" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="F2209" s="30"/>
       <c r="G2209" s="30"/>
       <c r="H2209" s="30" t="s">
-        <v>2798</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="2210" spans="1:8" ht="13">
@@ -52032,11 +52074,11 @@
         <v>1980</v>
       </c>
       <c r="E2216" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2216" s="30"/>
       <c r="G2216" s="30" t="s">
-        <v>2799</v>
+        <v>2785</v>
       </c>
       <c r="H2216" s="30"/>
     </row>
@@ -52120,7 +52162,7 @@
       </c>
       <c r="F2221" s="30"/>
       <c r="G2221" s="30" t="s">
-        <v>2942</v>
+        <v>2926</v>
       </c>
       <c r="H2221" s="30"/>
     </row>
@@ -52142,7 +52184,7 @@
       </c>
       <c r="F2222" s="30"/>
       <c r="G2222" s="30" t="s">
-        <v>2942</v>
+        <v>2926</v>
       </c>
       <c r="H2222" s="30"/>
     </row>
@@ -52182,7 +52224,7 @@
       </c>
       <c r="F2224" s="30"/>
       <c r="G2224" s="30" t="s">
-        <v>2800</v>
+        <v>2786</v>
       </c>
       <c r="H2224" s="30"/>
     </row>
@@ -52260,7 +52302,7 @@
         <v>923</v>
       </c>
       <c r="G2228" s="30" t="s">
-        <v>2801</v>
+        <v>2787</v>
       </c>
       <c r="H2228" s="30"/>
     </row>
@@ -52336,7 +52378,7 @@
         <v>27</v>
       </c>
       <c r="C2233" s="33" t="s">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="D2233" s="17" t="s">
         <v>21</v>
@@ -52346,7 +52388,7 @@
       </c>
       <c r="F2233" s="30"/>
       <c r="G2233" s="30" t="s">
-        <v>2802</v>
+        <v>2788</v>
       </c>
       <c r="H2233" s="30"/>
     </row>
@@ -52366,7 +52408,7 @@
       </c>
       <c r="F2234" s="30"/>
       <c r="G2234" s="30" t="s">
-        <v>2803</v>
+        <v>2789</v>
       </c>
       <c r="H2234" s="30"/>
     </row>
@@ -52390,7 +52432,7 @@
         <v>923</v>
       </c>
       <c r="G2235" s="30" t="s">
-        <v>2804</v>
+        <v>2790</v>
       </c>
       <c r="H2235" s="30"/>
     </row>
@@ -52406,12 +52448,12 @@
         <v>1991</v>
       </c>
       <c r="E2236" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2236" s="30"/>
       <c r="G2236" s="30"/>
       <c r="H2236" s="30" t="s">
-        <v>2805</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="2237" spans="1:8" ht="13">
@@ -52450,7 +52492,7 @@
         <v>923</v>
       </c>
       <c r="G2238" s="30" t="s">
-        <v>2806</v>
+        <v>2792</v>
       </c>
       <c r="H2238" s="30"/>
     </row>
@@ -52462,10 +52504,10 @@
         <v>33</v>
       </c>
       <c r="C2239" s="33" t="s">
-        <v>3077</v>
+        <v>3061</v>
       </c>
       <c r="D2239" s="10" t="s">
-        <v>3076</v>
+        <v>3060</v>
       </c>
       <c r="E2239" s="30"/>
       <c r="F2239" s="30"/>
@@ -52488,7 +52530,7 @@
       </c>
       <c r="F2240" s="30"/>
       <c r="G2240" s="30" t="s">
-        <v>2807</v>
+        <v>2793</v>
       </c>
       <c r="H2240" s="30"/>
     </row>
@@ -52512,10 +52554,10 @@
         <v>243</v>
       </c>
       <c r="G2241" s="30" t="s">
-        <v>2808</v>
+        <v>2794</v>
       </c>
       <c r="H2241" s="30" t="s">
-        <v>2809</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="2242" spans="1:8" ht="13">
@@ -52550,7 +52592,7 @@
       </c>
       <c r="F2243" s="30"/>
       <c r="G2243" s="30" t="s">
-        <v>2810</v>
+        <v>2796</v>
       </c>
       <c r="H2243" s="30"/>
     </row>
@@ -52570,7 +52612,7 @@
       </c>
       <c r="F2244" s="30"/>
       <c r="G2244" s="30" t="s">
-        <v>2811</v>
+        <v>2797</v>
       </c>
       <c r="H2244" s="30"/>
     </row>
@@ -52612,7 +52654,7 @@
       </c>
       <c r="F2246" s="30"/>
       <c r="G2246" s="30" t="s">
-        <v>2812</v>
+        <v>2798</v>
       </c>
       <c r="H2246" s="30"/>
     </row>
@@ -52630,16 +52672,16 @@
         <v>1996</v>
       </c>
       <c r="E2247" s="30" t="s">
-        <v>2813</v>
+        <v>2799</v>
       </c>
       <c r="F2247" s="30" t="s">
         <v>923</v>
       </c>
       <c r="G2247" s="31" t="s">
-        <v>2917</v>
+        <v>2901</v>
       </c>
       <c r="H2247" s="31" t="s">
-        <v>2814</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="2248" spans="1:8" ht="13">
@@ -52674,7 +52716,7 @@
       </c>
       <c r="F2249" s="30"/>
       <c r="G2249" s="30" t="s">
-        <v>3143</v>
+        <v>3127</v>
       </c>
       <c r="H2249" s="30"/>
     </row>
@@ -52694,7 +52736,7 @@
       </c>
       <c r="F2250" s="30"/>
       <c r="G2250" s="30" t="s">
-        <v>2815</v>
+        <v>2801</v>
       </c>
       <c r="H2250" s="30"/>
     </row>
@@ -52730,10 +52772,10 @@
       </c>
       <c r="F2252" s="30"/>
       <c r="G2252" s="30" t="s">
-        <v>2816</v>
+        <v>2802</v>
       </c>
       <c r="H2252" s="30" t="s">
-        <v>2817</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="2253" spans="1:8" ht="13">
@@ -52858,7 +52900,7 @@
       </c>
       <c r="F2259" s="30"/>
       <c r="G2259" s="30" t="s">
-        <v>3008</v>
+        <v>2992</v>
       </c>
       <c r="H2259" s="30"/>
     </row>
@@ -52994,7 +53036,7 @@
         <v>61</v>
       </c>
       <c r="C2267" s="33" t="s">
-        <v>3009</v>
+        <v>2993</v>
       </c>
       <c r="D2267" s="17" t="s">
         <v>2012</v>
@@ -53016,14 +53058,14 @@
         <v>21</v>
       </c>
       <c r="E2268" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2268" s="30"/>
       <c r="G2268" s="30" t="s">
-        <v>2818</v>
+        <v>2804</v>
       </c>
       <c r="H2268" s="30" t="s">
-        <v>2819</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="2269" spans="1:8" ht="13">
@@ -53038,11 +53080,11 @@
         <v>21</v>
       </c>
       <c r="E2269" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2269" s="30"/>
       <c r="G2269" s="30" t="s">
-        <v>2820</v>
+        <v>2806</v>
       </c>
       <c r="H2269" s="30"/>
     </row>
@@ -53058,11 +53100,11 @@
         <v>21</v>
       </c>
       <c r="E2270" s="30" t="s">
-        <v>2821</v>
+        <v>2807</v>
       </c>
       <c r="F2270" s="30"/>
       <c r="G2270" s="30" t="s">
-        <v>3059</v>
+        <v>3043</v>
       </c>
       <c r="H2270" s="30"/>
     </row>
@@ -53078,12 +53120,12 @@
         <v>2013</v>
       </c>
       <c r="E2271" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2271" s="30"/>
       <c r="G2271" s="30"/>
       <c r="H2271" s="30" t="s">
-        <v>2822</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="2272" spans="1:8" ht="13">
@@ -53107,7 +53149,7 @@
         <v>2014</v>
       </c>
       <c r="H2272" s="30" t="s">
-        <v>2823</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="2273" spans="1:8" ht="13">
@@ -53158,7 +53200,7 @@
         <v>69</v>
       </c>
       <c r="C2275" s="33" t="s">
-        <v>3007</v>
+        <v>2991</v>
       </c>
       <c r="D2275" s="17" t="s">
         <v>2017</v>
@@ -53176,20 +53218,20 @@
         <v>70</v>
       </c>
       <c r="C2276" s="33" t="s">
-        <v>3006</v>
+        <v>2990</v>
       </c>
       <c r="D2276" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2276" s="30" t="s">
-        <v>2821</v>
+        <v>2807</v>
       </c>
       <c r="F2276" s="31"/>
       <c r="G2276" s="34" t="s">
-        <v>2824</v>
+        <v>2810</v>
       </c>
       <c r="H2276" s="30" t="s">
-        <v>2825</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="2277" spans="1:8" ht="13">
@@ -53206,7 +53248,7 @@
         <v>21</v>
       </c>
       <c r="E2277" s="30" t="s">
-        <v>2826</v>
+        <v>2812</v>
       </c>
       <c r="F2277" s="31">
         <v>5761</v>
@@ -53215,7 +53257,7 @@
         <v>2018</v>
       </c>
       <c r="H2277" s="30" t="s">
-        <v>2827</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="2278" spans="1:8" ht="13">
@@ -53226,7 +53268,7 @@
         <v>72</v>
       </c>
       <c r="C2278" s="33" t="s">
-        <v>3010</v>
+        <v>2994</v>
       </c>
       <c r="D2278" s="17" t="s">
         <v>21</v>
@@ -53248,20 +53290,20 @@
         <v>73</v>
       </c>
       <c r="C2279" s="33" t="s">
-        <v>2935</v>
+        <v>2919</v>
       </c>
       <c r="D2279" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2279" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2279" s="30"/>
       <c r="G2279" s="30" t="s">
         <v>2020</v>
       </c>
       <c r="H2279" s="29" t="s">
-        <v>2829</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="2280" spans="1:8" ht="13">
@@ -53306,20 +53348,20 @@
         <v>76</v>
       </c>
       <c r="C2282" s="33" t="s">
-        <v>3068</v>
+        <v>3052</v>
       </c>
       <c r="D2282" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2282" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2282" s="30"/>
       <c r="G2282" s="30" t="s">
         <v>2022</v>
       </c>
       <c r="H2282" s="29" t="s">
-        <v>2830</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="2283" spans="1:8" ht="13">
@@ -53354,11 +53396,11 @@
         <v>21</v>
       </c>
       <c r="E2284" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2284" s="30"/>
       <c r="G2284" s="30" t="s">
-        <v>2831</v>
+        <v>2817</v>
       </c>
       <c r="H2284" s="30"/>
     </row>
@@ -53594,16 +53636,16 @@
         <v>2037</v>
       </c>
       <c r="E2296" s="30" t="s">
-        <v>2826</v>
+        <v>2812</v>
       </c>
       <c r="F2296" s="31">
         <v>5778</v>
       </c>
       <c r="G2296" s="30" t="s">
-        <v>2832</v>
+        <v>2818</v>
       </c>
       <c r="H2296" s="31" t="s">
-        <v>2833</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="2297" spans="1:8" ht="13">
@@ -53620,14 +53662,14 @@
         <v>21</v>
       </c>
       <c r="E2297" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2297" s="30"/>
       <c r="G2297" s="30" t="s">
-        <v>2984</v>
+        <v>2968</v>
       </c>
       <c r="H2297" s="29" t="s">
-        <v>2834</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="2298" spans="1:8" ht="13">
@@ -53656,7 +53698,7 @@
         <v>93</v>
       </c>
       <c r="C2299" s="30" t="s">
-        <v>2985</v>
+        <v>2969</v>
       </c>
       <c r="D2299" s="17" t="s">
         <v>2039</v>
@@ -53696,14 +53738,14 @@
         <v>21</v>
       </c>
       <c r="E2301" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2301" s="30"/>
       <c r="G2301" s="30" t="s">
         <v>2041</v>
       </c>
       <c r="H2301" s="29" t="s">
-        <v>2835</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="2302" spans="1:8" ht="13">
@@ -53756,16 +53798,16 @@
         <v>21</v>
       </c>
       <c r="E2304" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2304" s="30">
         <v>5791</v>
       </c>
       <c r="G2304" s="29" t="s">
-        <v>2836</v>
+        <v>2822</v>
       </c>
       <c r="H2304" s="30" t="s">
-        <v>2837</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="2305" spans="1:8" ht="13">
@@ -53870,7 +53912,7 @@
         <v>104</v>
       </c>
       <c r="C2310" s="33" t="s">
-        <v>3060</v>
+        <v>3044</v>
       </c>
       <c r="D2310" s="17" t="s">
         <v>2051</v>
@@ -53888,22 +53930,22 @@
         <v>105</v>
       </c>
       <c r="C2311" s="33" t="s">
-        <v>2839</v>
+        <v>2825</v>
       </c>
       <c r="D2311" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2311" s="30" t="s">
-        <v>2838</v>
+        <v>2824</v>
       </c>
       <c r="F2311" s="31" t="s">
-        <v>2839</v>
+        <v>2825</v>
       </c>
       <c r="G2311" s="30" t="s">
         <v>2052</v>
       </c>
       <c r="H2311" s="31" t="s">
-        <v>2840</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="2312" spans="1:8" ht="13">
@@ -54015,7 +54057,7 @@
         <v>5810</v>
       </c>
       <c r="D2317" s="10" t="s">
-        <v>3054</v>
+        <v>3038</v>
       </c>
       <c r="E2317" s="30"/>
       <c r="F2317" s="30"/>
@@ -54072,14 +54114,14 @@
         <v>2060</v>
       </c>
       <c r="E2320" s="30" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="F2320" s="31">
         <v>5814</v>
       </c>
       <c r="G2320" s="30"/>
       <c r="H2320" s="30" t="s">
-        <v>2841</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="2321" spans="1:8" ht="13">
@@ -54096,12 +54138,12 @@
         <v>2062</v>
       </c>
       <c r="E2321" s="30" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F2321" s="30"/>
       <c r="G2321" s="30"/>
       <c r="H2321" s="30" t="s">
-        <v>2842</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="2322" spans="1:8" ht="13">
@@ -54394,7 +54436,7 @@
         <v>21</v>
       </c>
       <c r="E2336" s="30" t="s">
-        <v>2843</v>
+        <v>2829</v>
       </c>
       <c r="F2336" s="30"/>
       <c r="G2336" s="30" t="s">
@@ -54434,20 +54476,20 @@
         <v>132</v>
       </c>
       <c r="C2338" s="33" t="s">
-        <v>2966</v>
+        <v>2950</v>
       </c>
       <c r="D2338" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2338" s="30" t="s">
-        <v>2828</v>
+        <v>2814</v>
       </c>
       <c r="F2338" s="31"/>
       <c r="G2338" s="30" t="s">
-        <v>2844</v>
+        <v>2830</v>
       </c>
       <c r="H2338" s="30" t="s">
-        <v>2845</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="2339" spans="1:8" ht="13">
@@ -54458,18 +54500,18 @@
         <v>133</v>
       </c>
       <c r="C2339" s="33" t="s">
-        <v>2918</v>
+        <v>2902</v>
       </c>
       <c r="D2339" s="17" t="s">
         <v>2087</v>
       </c>
       <c r="E2339" s="30" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="F2339" s="31"/>
       <c r="G2339" s="30"/>
       <c r="H2339" s="30" t="s">
-        <v>2846</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="2340" spans="1:8" ht="13">
@@ -54548,7 +54590,7 @@
         <v>7</v>
       </c>
       <c r="C2344" s="33" t="s">
-        <v>3024</v>
+        <v>3008</v>
       </c>
       <c r="D2344" s="17" t="s">
         <v>21</v>
@@ -54718,7 +54760,7 @@
         <v>15</v>
       </c>
       <c r="C2352" s="33" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
       <c r="D2352" s="17" t="s">
         <v>2104</v>
@@ -54740,7 +54782,7 @@
         <v>16</v>
       </c>
       <c r="C2353" s="33" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
       <c r="D2353" s="17" t="s">
         <v>2106</v>
@@ -54762,12 +54804,12 @@
         <v>2107</v>
       </c>
       <c r="E2354" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F2354" s="30"/>
       <c r="G2354" s="30"/>
       <c r="H2354" s="30" t="s">
-        <v>2847</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="2355" spans="1:8" ht="13">
@@ -54778,7 +54820,7 @@
         <v>18</v>
       </c>
       <c r="C2355" s="33" t="s">
-        <v>3137</v>
+        <v>3121</v>
       </c>
       <c r="D2355" s="17" t="s">
         <v>2108</v>
@@ -54911,7 +54953,7 @@
       <c r="F2361" s="30"/>
       <c r="G2361" s="30"/>
       <c r="H2361" s="30" t="s">
-        <v>2848</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="2362" spans="1:8" ht="13">
@@ -54957,7 +54999,7 @@
         <v>2116</v>
       </c>
       <c r="H2363" s="30" t="s">
-        <v>2849</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="2364" spans="1:8" ht="13">
@@ -55114,10 +55156,10 @@
         <v>35</v>
       </c>
       <c r="C2372" s="33" t="s">
-        <v>3142</v>
+        <v>3126</v>
       </c>
       <c r="D2372" s="10" t="s">
-        <v>3141</v>
+        <v>3125</v>
       </c>
       <c r="E2372" s="30"/>
       <c r="F2372" s="30"/>
@@ -55140,7 +55182,7 @@
       </c>
       <c r="F2373" s="30"/>
       <c r="G2373" s="30" t="s">
-        <v>2850</v>
+        <v>3153</v>
       </c>
       <c r="H2373" s="30"/>
     </row>
@@ -55210,10 +55252,10 @@
       </c>
       <c r="F2377" s="30"/>
       <c r="G2377" s="30" t="s">
-        <v>2851</v>
+        <v>2836</v>
       </c>
       <c r="H2377" s="30" t="s">
-        <v>2852</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="2378" spans="1:8" ht="13">
@@ -55232,7 +55274,7 @@
       </c>
       <c r="F2378" s="30"/>
       <c r="G2378" s="30" t="s">
-        <v>2853</v>
+        <v>2838</v>
       </c>
       <c r="H2378" s="30"/>
     </row>
@@ -55260,7 +55302,7 @@
         <v>43</v>
       </c>
       <c r="C2380" s="33" t="s">
-        <v>3069</v>
+        <v>3053</v>
       </c>
       <c r="D2380" s="17" t="s">
         <v>2128</v>
@@ -55324,7 +55366,7 @@
       </c>
       <c r="F2383" s="30"/>
       <c r="G2383" s="30" t="s">
-        <v>2854</v>
+        <v>2839</v>
       </c>
       <c r="H2383" s="30"/>
     </row>
@@ -55344,10 +55386,10 @@
       </c>
       <c r="F2384" s="30"/>
       <c r="G2384" s="30" t="s">
-        <v>2855</v>
+        <v>2840</v>
       </c>
       <c r="H2384" s="30" t="s">
-        <v>2856</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="2385" spans="1:8" ht="13">
@@ -55366,7 +55408,7 @@
       </c>
       <c r="F2385" s="30"/>
       <c r="G2385" s="30" t="s">
-        <v>2857</v>
+        <v>2842</v>
       </c>
       <c r="H2385" s="30"/>
     </row>
@@ -55434,7 +55476,7 @@
       </c>
       <c r="F2389" s="30"/>
       <c r="G2389" s="30" t="s">
-        <v>2858</v>
+        <v>2843</v>
       </c>
       <c r="H2389" s="30"/>
     </row>
@@ -55454,7 +55496,7 @@
       </c>
       <c r="F2390" s="30"/>
       <c r="G2390" s="30" t="s">
-        <v>2859</v>
+        <v>2844</v>
       </c>
       <c r="H2390" s="30"/>
     </row>
@@ -55466,7 +55508,7 @@
         <v>54</v>
       </c>
       <c r="C2391" s="33" t="s">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="D2391" s="17" t="s">
         <v>21</v>
@@ -55476,7 +55518,7 @@
       </c>
       <c r="F2391" s="30"/>
       <c r="G2391" s="30" t="s">
-        <v>2860</v>
+        <v>2845</v>
       </c>
       <c r="H2391" s="30"/>
     </row>
@@ -55496,10 +55538,10 @@
       </c>
       <c r="F2392" s="30"/>
       <c r="G2392" s="30" t="s">
-        <v>2861</v>
+        <v>2846</v>
       </c>
       <c r="H2392" s="30" t="s">
-        <v>2862</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="2393" spans="1:8" ht="13">
@@ -55536,7 +55578,7 @@
       </c>
       <c r="F2394" s="30"/>
       <c r="G2394" s="30" t="s">
-        <v>2863</v>
+        <v>2848</v>
       </c>
       <c r="H2394" s="30"/>
     </row>
@@ -55556,7 +55598,7 @@
       </c>
       <c r="F2395" s="30"/>
       <c r="G2395" s="30" t="s">
-        <v>2864</v>
+        <v>2849</v>
       </c>
       <c r="H2395" s="30"/>
     </row>
@@ -55586,7 +55628,7 @@
         <v>60</v>
       </c>
       <c r="C2397" s="33" t="s">
-        <v>3028</v>
+        <v>3012</v>
       </c>
       <c r="D2397" s="17" t="s">
         <v>2136</v>
@@ -55616,7 +55658,7 @@
         <v>923</v>
       </c>
       <c r="G2398" s="30" t="s">
-        <v>2865</v>
+        <v>2850</v>
       </c>
       <c r="H2398" s="30"/>
     </row>
@@ -55656,7 +55698,7 @@
         <v>923</v>
       </c>
       <c r="G2400" s="30" t="s">
-        <v>2866</v>
+        <v>2851</v>
       </c>
       <c r="H2400" s="30"/>
     </row>
@@ -55676,10 +55718,10 @@
       </c>
       <c r="F2401" s="30"/>
       <c r="G2401" s="30" t="s">
-        <v>2867</v>
+        <v>2852</v>
       </c>
       <c r="H2401" s="30" t="s">
-        <v>2868</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="2402" spans="1:8" ht="13">
@@ -55714,7 +55756,7 @@
       </c>
       <c r="F2403" s="30"/>
       <c r="G2403" s="30" t="s">
-        <v>2869</v>
+        <v>2854</v>
       </c>
       <c r="H2403" s="30"/>
     </row>
@@ -55734,7 +55776,7 @@
       </c>
       <c r="F2404" s="30"/>
       <c r="G2404" s="30" t="s">
-        <v>2869</v>
+        <v>2854</v>
       </c>
       <c r="H2404" s="30"/>
     </row>
@@ -55770,7 +55812,7 @@
       </c>
       <c r="F2406" s="30"/>
       <c r="G2406" s="30" t="s">
-        <v>2870</v>
+        <v>2855</v>
       </c>
       <c r="H2406" s="30"/>
     </row>
@@ -55790,7 +55832,7 @@
       </c>
       <c r="F2407" s="30"/>
       <c r="G2407" s="30" t="s">
-        <v>2871</v>
+        <v>2856</v>
       </c>
       <c r="H2407" s="30"/>
     </row>
@@ -55810,7 +55852,7 @@
       </c>
       <c r="F2408" s="30"/>
       <c r="G2408" s="30" t="s">
-        <v>2872</v>
+        <v>2857</v>
       </c>
       <c r="H2408" s="30"/>
     </row>
@@ -55846,7 +55888,7 @@
       </c>
       <c r="F2410" s="30"/>
       <c r="G2410" s="30" t="s">
-        <v>2873</v>
+        <v>2858</v>
       </c>
       <c r="H2410" s="30"/>
     </row>
@@ -55882,7 +55924,7 @@
       </c>
       <c r="F2412" s="30"/>
       <c r="G2412" s="30" t="s">
-        <v>2874</v>
+        <v>2859</v>
       </c>
       <c r="H2412" s="30"/>
     </row>
@@ -55902,7 +55944,7 @@
       </c>
       <c r="F2413" s="30"/>
       <c r="G2413" s="30" t="s">
-        <v>2875</v>
+        <v>2860</v>
       </c>
       <c r="H2413" s="30"/>
     </row>
@@ -55954,7 +55996,7 @@
       </c>
       <c r="F2416" s="30"/>
       <c r="G2416" s="30" t="s">
-        <v>2938</v>
+        <v>2922</v>
       </c>
       <c r="H2416" s="30"/>
     </row>
@@ -55974,7 +56016,7 @@
       </c>
       <c r="F2417" s="30"/>
       <c r="G2417" s="30" t="s">
-        <v>2938</v>
+        <v>2922</v>
       </c>
       <c r="H2417" s="30"/>
     </row>
@@ -55996,7 +56038,7 @@
       </c>
       <c r="F2418" s="30"/>
       <c r="G2418" s="30" t="s">
-        <v>2876</v>
+        <v>2861</v>
       </c>
       <c r="H2418" s="30"/>
     </row>
@@ -56016,7 +56058,7 @@
       </c>
       <c r="F2419" s="30"/>
       <c r="G2419" s="30" t="s">
-        <v>2877</v>
+        <v>2862</v>
       </c>
       <c r="H2419" s="30"/>
     </row>
@@ -56036,7 +56078,7 @@
       </c>
       <c r="F2420" s="30"/>
       <c r="G2420" s="30" t="s">
-        <v>2878</v>
+        <v>2863</v>
       </c>
       <c r="H2420" s="30"/>
     </row>
@@ -56088,7 +56130,7 @@
       </c>
       <c r="F2423" s="30"/>
       <c r="G2423" s="30" t="s">
-        <v>2879</v>
+        <v>2864</v>
       </c>
       <c r="H2423" s="30"/>
     </row>
@@ -56108,7 +56150,7 @@
       </c>
       <c r="F2424" s="30"/>
       <c r="G2424" s="30" t="s">
-        <v>2880</v>
+        <v>3157</v>
       </c>
       <c r="H2424" s="30"/>
     </row>
@@ -56148,10 +56190,10 @@
         <v>923</v>
       </c>
       <c r="G2426" s="30" t="s">
-        <v>2881</v>
+        <v>2865</v>
       </c>
       <c r="H2426" s="30" t="s">
-        <v>2882</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="2427" spans="1:8" ht="13">
@@ -56272,7 +56314,7 @@
       </c>
       <c r="F2433" s="30"/>
       <c r="G2433" s="30" t="s">
-        <v>2883</v>
+        <v>2867</v>
       </c>
       <c r="H2433" s="30"/>
     </row>
@@ -56284,7 +56326,7 @@
         <v>97</v>
       </c>
       <c r="C2434" s="33" t="s">
-        <v>2951</v>
+        <v>2935</v>
       </c>
       <c r="D2434" s="17" t="s">
         <v>21</v>
@@ -56294,7 +56336,7 @@
       </c>
       <c r="F2434" s="30"/>
       <c r="G2434" s="30" t="s">
-        <v>2884</v>
+        <v>2868</v>
       </c>
       <c r="H2434" s="30"/>
     </row>
@@ -56306,7 +56348,7 @@
         <v>98</v>
       </c>
       <c r="C2435" s="33" t="s">
-        <v>2951</v>
+        <v>2935</v>
       </c>
       <c r="D2435" s="17" t="s">
         <v>21</v>
@@ -56316,7 +56358,7 @@
       </c>
       <c r="F2435" s="30"/>
       <c r="G2435" s="30" t="s">
-        <v>2885</v>
+        <v>2869</v>
       </c>
       <c r="H2435" s="30"/>
     </row>
@@ -56352,7 +56394,7 @@
       </c>
       <c r="F2437" s="30"/>
       <c r="G2437" s="30" t="s">
-        <v>2886</v>
+        <v>2870</v>
       </c>
       <c r="H2437" s="30"/>
     </row>
@@ -56372,7 +56414,7 @@
       </c>
       <c r="F2438" s="30"/>
       <c r="G2438" s="30" t="s">
-        <v>2887</v>
+        <v>2871</v>
       </c>
       <c r="H2438" s="30"/>
     </row>
@@ -56416,7 +56458,7 @@
         <v>104</v>
       </c>
       <c r="C2441" s="33" t="s">
-        <v>2953</v>
+        <v>2937</v>
       </c>
       <c r="D2441" s="17" t="s">
         <v>2154</v>
@@ -56442,7 +56484,7 @@
       </c>
       <c r="F2442" s="30"/>
       <c r="G2442" s="30" t="s">
-        <v>2888</v>
+        <v>2872</v>
       </c>
       <c r="H2442" s="30"/>
     </row>
@@ -56549,7 +56591,7 @@
         <v>2159</v>
       </c>
       <c r="H2448" s="30" t="s">
-        <v>2889</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="2449" spans="1:8" ht="13">
@@ -56564,7 +56606,7 @@
         <v>2161</v>
       </c>
       <c r="E2449" s="30" t="s">
-        <v>2915</v>
+        <v>2899</v>
       </c>
       <c r="F2449" s="30" t="s">
         <v>2179</v>
@@ -56580,7 +56622,7 @@
         <v>113</v>
       </c>
       <c r="C2450" s="33" t="s">
-        <v>3012</v>
+        <v>2996</v>
       </c>
       <c r="D2450" s="17" t="s">
         <v>2162</v>
@@ -56638,7 +56680,7 @@
       </c>
       <c r="F2453" s="30"/>
       <c r="G2453" s="30" t="s">
-        <v>2890</v>
+        <v>2874</v>
       </c>
       <c r="H2453" s="30"/>
     </row>
@@ -56700,7 +56742,7 @@
         <v>919</v>
       </c>
       <c r="G2456" s="30" t="s">
-        <v>2891</v>
+        <v>2875</v>
       </c>
       <c r="H2456" s="30"/>
     </row>
@@ -56740,10 +56782,10 @@
         <v>919</v>
       </c>
       <c r="G2458" s="30" t="s">
-        <v>2892</v>
+        <v>2876</v>
       </c>
       <c r="H2458" s="30" t="s">
-        <v>2889</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="2459" spans="1:8" ht="13">
@@ -56764,7 +56806,7 @@
       </c>
       <c r="F2459" s="30"/>
       <c r="G2459" s="30" t="s">
-        <v>2893</v>
+        <v>2877</v>
       </c>
       <c r="H2459" s="30"/>
     </row>
@@ -56784,7 +56826,7 @@
       </c>
       <c r="F2460" s="30"/>
       <c r="G2460" s="30" t="s">
-        <v>2894</v>
+        <v>2878</v>
       </c>
       <c r="H2460" s="30"/>
     </row>
@@ -56860,12 +56902,12 @@
         <v>2171</v>
       </c>
       <c r="E2464" s="30" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F2464" s="31"/>
       <c r="G2464" s="30"/>
       <c r="H2464" s="30" t="s">
-        <v>2895</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="2465" spans="1:8" ht="13">
@@ -56882,16 +56924,16 @@
         <v>21</v>
       </c>
       <c r="E2465" s="30" t="s">
-        <v>2896</v>
+        <v>2880</v>
       </c>
       <c r="F2465" s="31">
         <v>6213</v>
       </c>
       <c r="G2465" s="30" t="s">
-        <v>2897</v>
+        <v>2881</v>
       </c>
       <c r="H2465" s="30" t="s">
-        <v>2898</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="2466" spans="1:8" ht="13">
@@ -56942,7 +56984,7 @@
       </c>
       <c r="F2468" s="30"/>
       <c r="G2468" s="30" t="s">
-        <v>2899</v>
+        <v>2883</v>
       </c>
       <c r="H2468" s="30"/>
     </row>
@@ -56982,7 +57024,7 @@
         <v>923</v>
       </c>
       <c r="G2470" s="30" t="s">
-        <v>2900</v>
+        <v>2884</v>
       </c>
       <c r="H2470" s="30"/>
     </row>
@@ -57024,7 +57066,7 @@
       </c>
       <c r="F2472" s="30"/>
       <c r="G2472" s="30" t="s">
-        <v>2901</v>
+        <v>2885</v>
       </c>
       <c r="H2472" s="30"/>
     </row>
@@ -57044,7 +57086,7 @@
       </c>
       <c r="F2473" s="30"/>
       <c r="G2473" s="30" t="s">
-        <v>2901</v>
+        <v>2885</v>
       </c>
       <c r="H2473" s="30"/>
     </row>
@@ -57064,10 +57106,10 @@
       </c>
       <c r="F2474" s="30"/>
       <c r="G2474" s="30" t="s">
-        <v>2902</v>
+        <v>2886</v>
       </c>
       <c r="H2474" s="30" t="s">
-        <v>2903</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="2475" spans="1:8" ht="13">
@@ -57086,7 +57128,7 @@
       </c>
       <c r="F2475" s="30"/>
       <c r="G2475" s="30" t="s">
-        <v>2904</v>
+        <v>2888</v>
       </c>
       <c r="H2475" s="30"/>
     </row>
@@ -57176,10 +57218,10 @@
       </c>
       <c r="F2480" s="30"/>
       <c r="G2480" s="30" t="s">
-        <v>2939</v>
+        <v>2923</v>
       </c>
       <c r="H2480" s="30" t="s">
-        <v>2905</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="2481" spans="1:8" ht="13">
@@ -57198,7 +57240,7 @@
       </c>
       <c r="F2481" s="30"/>
       <c r="G2481" s="30" t="s">
-        <v>2906</v>
+        <v>2890</v>
       </c>
       <c r="H2481" s="30"/>
     </row>
@@ -57234,7 +57276,7 @@
       </c>
       <c r="F2483" s="30"/>
       <c r="G2483" s="30" t="s">
-        <v>2907</v>
+        <v>2891</v>
       </c>
       <c r="H2483" s="30"/>
     </row>
@@ -57288,7 +57330,7 @@
       </c>
       <c r="F2486" s="30"/>
       <c r="G2486" s="30" t="s">
-        <v>2908</v>
+        <v>2892</v>
       </c>
       <c r="H2486" s="30"/>
     </row>
@@ -57324,7 +57366,7 @@
       </c>
       <c r="F2488" s="30"/>
       <c r="G2488" s="30" t="s">
-        <v>2909</v>
+        <v>2893</v>
       </c>
       <c r="H2488" s="30"/>
     </row>
@@ -57360,7 +57402,7 @@
       </c>
       <c r="F2490" s="30"/>
       <c r="G2490" s="30" t="s">
-        <v>2910</v>
+        <v>2894</v>
       </c>
       <c r="H2490" s="30"/>
     </row>
@@ -57396,10 +57438,10 @@
       </c>
       <c r="F2492" s="30"/>
       <c r="G2492" s="30" t="s">
-        <v>2911</v>
+        <v>2895</v>
       </c>
       <c r="H2492" s="30" t="s">
-        <v>2912</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="2493" spans="1:8" ht="13">
